--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P10_trail14 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P10_trail14 Features.xlsx
@@ -5441,7 +5441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5453,28 +5453,26 @@
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5495,115 +5493,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5620,72 +5608,66 @@
         <v>7.024502902477196e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.07566500457383123</v>
+        <v>2.544203959089388e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.9450871312327846</v>
+        <v>2.214476891762912e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.544203959089388e-07</v>
+        <v>0.0253834315325162</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.214476891762912e-06</v>
+        <v>0.214606535347869</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.0253834315325162</v>
+        <v>0.04651874773376007</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.214606535347869</v>
+        <v>1.804227293099822</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.04651874773376007</v>
+        <v>1.880715933039503</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.752668367225606</v>
+        <v>3.908449575603191</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.880715933039503</v>
+        <v>1.003049903670706e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.908449575603191</v>
+        <v>156111274.3542373</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.003049903670706e-15</v>
+        <v>7.499600769337107e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>156111274.3542373</v>
+        <v>24.44505835932928</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>7.499600769337107e-07</v>
+        <v>0.0001344888707798228</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>24.44505835932928</v>
+        <v>8.862219180584834</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001344888707798228</v>
+        <v>1.310883104217615</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.862219180584834</v>
+        <v>0.01056261184720446</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.310883104217615</v>
+        <v>3.10176723775111</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01056261184720446</v>
+        <v>0.9642447853812153</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.10176723775111</v>
+        <v>1.651475943078609</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9642447853812153</v>
+        <v>30</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.651475943078609</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2532697775564569</v>
       </c>
     </row>
@@ -5700,72 +5682,66 @@
         <v>7.132793294278759e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.03501460837632876</v>
+        <v>2.601493230873352e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.9863598966314866</v>
+        <v>2.217182943272096e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.601493230873352e-07</v>
+        <v>0.04895165746087994</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.217182943272096e-06</v>
+        <v>0.1205378601830617</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.04895165746087994</v>
+        <v>0.01686630171405012</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1205378601830617</v>
+        <v>1.795590916362719</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.01686630171405012</v>
+        <v>1.766735314087154</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.741267485075267</v>
+        <v>3.876682577274115</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.766735314087154</v>
+        <v>1.171814045414811e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.876682577274115</v>
+        <v>138142137.1271384</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.171814045414811e-15</v>
+        <v>8.510754261728914e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>138142137.1271384</v>
+        <v>22.36202044081512</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>8.510754261728914e-07</v>
+        <v>0.000159641791896044</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>22.36202044081512</v>
+        <v>9.962663562010095</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.000159641791896044</v>
+        <v>1.201067682258472</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.962663562010095</v>
+        <v>0.01584519261452066</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.201067682258472</v>
+        <v>2.866798472219574</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01584519261452066</v>
+        <v>0.9644434566938712</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.866798472219574</v>
+        <v>1.660659116063363</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9644434566938712</v>
+        <v>30</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.660659116063363</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2590933740549612</v>
       </c>
     </row>
@@ -5780,72 +5756,66 @@
         <v>7.126109297568854e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.03100757086420316</v>
+        <v>2.723504370223458e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.002826707282253</v>
+        <v>2.221214515473369e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.723504370223458e-07</v>
+        <v>0.06222581722041066</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.221214515473369e-06</v>
+        <v>0.08093052357048554</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.06222581722041066</v>
+        <v>0.01041468350904626</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.08093052357048554</v>
+        <v>1.761627758573576</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01041468350904626</v>
+        <v>1.688787201132917</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.695754431311325</v>
+        <v>3.968121527001072</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.688787201132917</v>
+        <v>1.118431152811649e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.968121527001072</v>
+        <v>145493161.9498409</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.118431152811649e-15</v>
+        <v>8.008007642330716e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>145493161.9498409</v>
+        <v>23.67524162960563</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>8.008007642330716e-07</v>
+        <v>0.000156504235091466</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>23.67524162960563</v>
+        <v>11.07923672484162</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.000156504235091466</v>
+        <v>1.081200290666011</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>11.07923672484162</v>
+        <v>0.01921081447769724</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.081200290666011</v>
+        <v>2.859638055696738</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01921081447769724</v>
+        <v>0.9620854641416338</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.859638055696738</v>
+        <v>1.714649396159653</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9620854641416338</v>
+        <v>33</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.714649396159653</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2874451617598625</v>
       </c>
     </row>
@@ -5860,72 +5830,66 @@
         <v>7.052770343323847e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.08877700671139206</v>
+        <v>2.796037468413507e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.094923736762739</v>
+        <v>2.225810712600043e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.796037468413507e-07</v>
+        <v>0.06608500841281412</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.225810712600043e-06</v>
+        <v>0.07886599179786183</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.06608500841281412</v>
+        <v>0.01058472755550117</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.07886599179786183</v>
+        <v>1.78035426906198</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01058472755550117</v>
+        <v>1.770964662095892</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.719309873299424</v>
+        <v>4.149717046238413</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.770964662095892</v>
+        <v>1.022685773258899e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.149717046238413</v>
+        <v>154411966.5935488</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.022685773258899e-15</v>
+        <v>7.584472217146054e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>154411966.5935488</v>
+        <v>24.38395357651004</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>7.584472217146054e-07</v>
+        <v>0.0001491686763527653</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>24.38395357651004</v>
+        <v>9.507219431041987</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001491686763527653</v>
+        <v>1.465400347556634</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.507219431041987</v>
+        <v>0.01348294216201452</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.465400347556634</v>
+        <v>3.213282179233287</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01348294216201452</v>
+        <v>0.9619120739487554</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.213282179233287</v>
+        <v>1.627367497883268</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9619120739487554</v>
+        <v>33</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.627367497883268</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2691119784890306</v>
       </c>
     </row>
@@ -5940,72 +5904,66 @@
         <v>7.011370048381071e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.1499681638853711</v>
+        <v>2.719782900513123e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.174744872327627</v>
+        <v>2.230417350124247e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.719782900513123e-07</v>
+        <v>0.06467645481079799</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.230417350124247e-06</v>
+        <v>0.07571401814295746</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.06467645481079799</v>
+        <v>0.009907167939770482</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.07571401814295746</v>
+        <v>1.795284643585094</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.009907167939770482</v>
+        <v>1.659977105877151</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.731658802520472</v>
+        <v>4.139801968582386</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.659977105877151</v>
+        <v>9.3443091037808e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.139801968582386</v>
+        <v>170502806.1405445</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>9.3443091037808e-16</v>
+        <v>6.880588140762526e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>170502806.1405445</v>
+        <v>27.16503433103859</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>6.880588140762526e-07</v>
+        <v>0.0001133459949674697</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>27.16503433103859</v>
+        <v>8.026591835847011</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001133459949674697</v>
+        <v>1.503108211509099</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.026591835847011</v>
+        <v>0.007302449077261372</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.503108211509099</v>
+        <v>3.412816600194373</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.007302449077261372</v>
+        <v>0.9605633089302724</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.412816600194373</v>
+        <v>1.680702689807821</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9605633089302724</v>
+        <v>33</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.680702689807821</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2864350406980279</v>
       </c>
     </row>
@@ -6020,72 +5978,66 @@
         <v>7.050561720138504e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.1903939642825894</v>
+        <v>2.654075550077787e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.178025239110588</v>
+        <v>2.234887289863055e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.654075550077787e-07</v>
+        <v>0.06276073620124148</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.234887289863055e-06</v>
+        <v>0.07130326259265893</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.06276073620124148</v>
+        <v>0.009016655824257315</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.07130326259265893</v>
+        <v>1.774400414823851</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.009016655824257315</v>
+        <v>1.741373274126887</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.698492984759754</v>
+        <v>3.761077386578611</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.741373274126887</v>
+        <v>8.292107934212137e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.761077386578611</v>
+        <v>190451770.2005038</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>8.292107934212137e-16</v>
+        <v>6.136324997263852e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>190451770.2005038</v>
+        <v>30.0770317174058</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>6.136324997263852e-07</v>
+        <v>0.0001036825175074595</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>30.0770317174058</v>
+        <v>7.935803143589166</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001036825175074595</v>
+        <v>1.407349591659231</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>7.935803143589166</v>
+        <v>0.006529610953619969</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.407349591659231</v>
+        <v>3.327759439631445</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.006529610953619969</v>
+        <v>0.9589988194820499</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.327759439631445</v>
+        <v>1.696699136794763</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9589988194820499</v>
+        <v>36</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.696699136794763</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2779719105904923</v>
       </c>
     </row>
@@ -6100,72 +6052,66 @@
         <v>7.161763055138996e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.2212840354328227</v>
+        <v>2.631915159583184e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.124419564163853</v>
+        <v>2.239287064465439e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.631915159583184e-07</v>
+        <v>0.06126520070120325</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.239287064465439e-06</v>
+        <v>0.06908014311363574</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.06126520070120325</v>
+        <v>0.008521577863105978</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.06908014311363574</v>
+        <v>1.758182160981546</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.008521577863105978</v>
+        <v>1.766536358780518</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.682158078733913</v>
+        <v>3.895377602891289</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.766536358780518</v>
+        <v>7.518131847079815e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.895377602891289</v>
+        <v>201435102.9800525</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>7.518131847079815e-16</v>
+        <v>5.736527838147831e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>201435102.9800525</v>
+        <v>30.50564749975984</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>5.736527838147831e-07</v>
+        <v>9.9878482198916e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>30.50564749975984</v>
+        <v>7.585459441506172</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>9.9878482198916e-05</v>
+        <v>1.281801569671224</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.585459441506172</v>
+        <v>0.005746927457428415</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.281801569671224</v>
+        <v>3.256951111459489</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.005746927457428415</v>
+        <v>0.9580891618481338</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.256951111459489</v>
+        <v>1.712735780434369</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9580891618481338</v>
+        <v>36</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.712735780434369</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2706499861122112</v>
       </c>
     </row>
@@ -6180,72 +6126,66 @@
         <v>7.321532713861398e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.2488840402723324</v>
+        <v>2.669939143182789e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.046440479128378</v>
+        <v>2.243677718586545e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.669939143182789e-07</v>
+        <v>0.06002682904256235</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.243677718586545e-06</v>
+        <v>0.06769240305865322</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.06002682904256235</v>
+        <v>0.00818482288678363</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.06769240305865322</v>
+        <v>1.732331327453499</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.00818482288678363</v>
+        <v>1.79486798685795</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.644671849664894</v>
+        <v>4.741528837651398</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.79486798685795</v>
+        <v>1.08226811294911e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.741528837651398</v>
+        <v>139952173.9441077</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.08226811294911e-15</v>
+        <v>8.229445461148799e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>139952173.9441077</v>
+        <v>21.19796451703572</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>8.229445461148799e-07</v>
+        <v>9.692360878765099e-05</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>21.19796451703572</v>
+        <v>7.325089150528196</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>9.692360878765099e-05</v>
+        <v>1.379200353146434</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.325089150528196</v>
+        <v>0.005200623395114188</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.379200353146434</v>
+        <v>3.261369997620048</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.005200623395114188</v>
+        <v>0.9584971435448895</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.261369997620048</v>
+        <v>1.747541286335388</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9584971435448895</v>
+        <v>36</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.747541286335388</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2864321046881958</v>
       </c>
     </row>
@@ -6260,72 +6200,66 @@
         <v>7.4930371939762e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.2672984137060667</v>
+        <v>2.703559482382351e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.985236219170424</v>
+        <v>2.248062928431598e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.703559482382351e-07</v>
+        <v>0.05829441194231522</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.248062928431598e-06</v>
+        <v>0.06620618617950733</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.05829441194231522</v>
+        <v>0.007781775812423928</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.06620618617950733</v>
+        <v>1.730878635593202</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.007781775812423928</v>
+        <v>1.824515016717409</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.640629765379651</v>
+        <v>4.256967088464338</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.824515016717409</v>
+        <v>1.342675518437516e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.256967088464338</v>
+        <v>116503172.8061341</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.342675518437516e-15</v>
+        <v>9.902014644414449e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>116503172.8061341</v>
+        <v>18.22412041007507</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>9.902014644414449e-07</v>
+        <v>9.621709966188326e-05</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>18.22412041007507</v>
+        <v>7.262689314413579</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>9.621709966188326e-05</v>
+        <v>1.983750541894542</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.262689314413579</v>
+        <v>0.00507513026465887</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.983750541894542</v>
+        <v>3.481268956225466</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.00507513026465887</v>
+        <v>0.9579976270845846</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.481268956225466</v>
+        <v>1.743707831705356</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9579976270845846</v>
+        <v>20</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.743707831705356</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2763557636676865</v>
       </c>
     </row>
@@ -6340,72 +6274,66 @@
         <v>7.64811036673825e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.2702400114932419</v>
+        <v>2.704600857940347e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.9604182499673048</v>
+        <v>2.25240207504187e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2.704600857940347e-07</v>
+        <v>0.05629773064801636</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.25240207504187e-06</v>
+        <v>0.0654098520600406</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.05629773064801636</v>
+        <v>0.007448195960286563</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.0654098520600406</v>
+        <v>1.732800223020984</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.007448195960286563</v>
+        <v>1.753760448042101</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.643728748915728</v>
+        <v>4.201743698844826</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.753760448042101</v>
+        <v>1.378200936041429e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.201743698844826</v>
+        <v>113374574.6828917</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.378200936041429e-15</v>
+        <v>1.017723530261224e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>113374574.6828917</v>
+        <v>17.71511117679843</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.017723530261224e-06</v>
+        <v>9.649526971895037e-05</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>17.71511117679843</v>
+        <v>7.400503332507869</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>9.649526971895037e-05</v>
+        <v>1.384969462016733</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.400503332507869</v>
+        <v>0.005284799818506538</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.384969462016733</v>
+        <v>3.451649223924965</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.005284799818506538</v>
+        <v>0.9584716558247744</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.451649223924965</v>
+        <v>1.737212058058659</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9584716558247744</v>
+        <v>20</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.737212058058659</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2700525629709828</v>
       </c>
     </row>
@@ -6420,72 +6348,66 @@
         <v>7.770800919604254e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.2582673630727503</v>
+        <v>2.704600857940347e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.9674004253417094</v>
+        <v>2.256675049750764e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2.704600857940347e-07</v>
+        <v>0.0545635429220834</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.256675049750764e-06</v>
+        <v>0.06550900961403201</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.0545635429220834</v>
+        <v>0.007268500106675338</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.06550900961403201</v>
+        <v>1.738315703732284</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.007268500106675338</v>
+        <v>1.810398783040576</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.654946351700914</v>
+        <v>4.131833696377598</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.810398783040576</v>
+        <v>1.425233392799477e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.131833696377598</v>
+        <v>113675876.6516107</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.425233392799477e-15</v>
+        <v>1.017641387517122e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>113675876.6516107</v>
+        <v>18.41715797841451</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.017641387517122e-06</v>
+        <v>0.0001076225526160691</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>18.41715797841451</v>
+        <v>8.871877687455935</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001076225526160691</v>
+        <v>1.401409047316427</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.871877687455935</v>
+        <v>0.00847099411547712</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.401409047316427</v>
+        <v>3.267881990885174</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.00847099411547712</v>
+        <v>0.9585395807080748</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.267881990885174</v>
+        <v>1.740254937716219</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9585395807080748</v>
+        <v>20</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.740254937716219</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2608439988403934</v>
       </c>
     </row>
@@ -6500,72 +6422,66 @@
         <v>7.844370242736058e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.2354606862255477</v>
+        <v>2.704600857940347e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.9968770623206966</v>
+        <v>2.260883112319042e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2.704600857940347e-07</v>
+        <v>0.05317307457106336</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.260883112319042e-06</v>
+        <v>0.06658000594845639</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.05317307457106336</v>
+        <v>0.007259638737328026</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.06658000594845639</v>
+        <v>1.746813517525539</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.007259638737328026</v>
+        <v>1.822989292770227</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.663871383529901</v>
+        <v>4.090490081277276</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.822989292770227</v>
+        <v>1.454189376571339e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.090490081277276</v>
+        <v>116608909.5543469</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.454189376571339e-15</v>
+        <v>1.00186631551403e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>116608909.5543469</v>
+        <v>19.77354041698041</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.00186631551403e-06</v>
+        <v>9.893214130091552e-05</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>19.77354041698041</v>
+        <v>7.978436101743303</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>9.893214130091552e-05</v>
+        <v>1.385888936415276</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>7.978436101743303</v>
+        <v>0.006297569244803995</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.385888936415276</v>
+        <v>3.290348049029234</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.006297569244803995</v>
+        <v>0.9583388006290717</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.290348049029234</v>
+        <v>1.720838693436994</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9583388006290717</v>
+        <v>14</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.720838693436994</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2671077313056758</v>
       </c>
     </row>
@@ -6580,72 +6496,66 @@
         <v>7.860931132411221e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.2075053642328366</v>
+        <v>2.704600857940347e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.039015536147862</v>
+        <v>2.265013147524161e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.704600857940347e-07</v>
+        <v>0.05191692710065909</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.265013147524161e-06</v>
+        <v>0.06877864361292392</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.05191692710065909</v>
+        <v>0.007425046035507721</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.06877864361292392</v>
+        <v>1.750573602961819</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.007425046035507721</v>
+        <v>1.756706140788656</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.66859192880575</v>
+        <v>4.100687503219079</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.756706140788656</v>
+        <v>1.446965931921719e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.100687503219079</v>
+        <v>117942926.1513865</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.446965931921719e-15</v>
+        <v>9.913336317640619e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>117942926.1513865</v>
+        <v>20.12806854562667</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>9.913336317640619e-07</v>
+        <v>8.943677039475927e-05</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>20.12806854562667</v>
+        <v>6.041586355245422</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>8.943677039475927e-05</v>
+        <v>1.344767804065237</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>6.041586355245422</v>
+        <v>0.003264510600060517</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.344767804065237</v>
+        <v>3.475618793836268</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.003264510600060517</v>
+        <v>0.9592592932575195</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.475618793836268</v>
+        <v>1.719634873867504</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9592592932575195</v>
+        <v>9</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.719634873867504</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2800712504490666</v>
       </c>
     </row>
@@ -6660,72 +6570,66 @@
         <v>7.822226892200537e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.1794105061019587</v>
+        <v>2.704600857940347e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.087213494354681</v>
+        <v>2.269035140401371e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2.704600857940347e-07</v>
+        <v>0.05055301744266529</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.269035140401371e-06</v>
+        <v>0.07214250507370612</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.05055301744266529</v>
+        <v>0.007759400260245936</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.07214250507370612</v>
+        <v>1.750590910861666</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.007759400260245936</v>
+        <v>1.671161449839655</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.666582914936413</v>
+        <v>4.210053495153279</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.671161449839655</v>
+        <v>1.372765724097781e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.210053495153279</v>
+        <v>121841033.4475301</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.372765724097781e-15</v>
+        <v>9.585062025354018e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>121841033.4475301</v>
+        <v>20.3790331121419</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>9.585062025354018e-07</v>
+        <v>9.379198813629833e-05</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>20.3790331121419</v>
+        <v>6.602678387321936</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>9.379198813629833e-05</v>
+        <v>2.44474396418217</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>6.602678387321936</v>
+        <v>0.00408889566484763</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>2.44474396418217</v>
+        <v>3.58119501949029</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.00408889566484763</v>
+        <v>0.9593597803000153</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.58119501949029</v>
+        <v>1.740826378239062</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9593597803000153</v>
+        <v>18</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.740826378239062</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2880201899567348</v>
       </c>
     </row>
@@ -6740,72 +6644,66 @@
         <v>7.736661176671082e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.1543591334319761</v>
+        <v>2.702644384360896e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.138077566825962</v>
+        <v>2.272917138627825e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2.702644384360896e-07</v>
+        <v>0.04916768045950951</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.272917138627825e-06</v>
+        <v>0.0758754983768187</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.04916768045950951</v>
+        <v>0.008174044185846848</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.0758754983768187</v>
+        <v>1.754593917945714</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.008174044185846848</v>
+        <v>1.704377871065857</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.672093032035075</v>
+        <v>4.379449844463577</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.704377871065857</v>
+        <v>1.268622885143479e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.379449844463577</v>
+        <v>133432456.8430509</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.268622885143479e-15</v>
+        <v>8.772400457029381e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>133432456.8430509</v>
+        <v>22.58684162813598</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>8.772400457029381e-07</v>
+        <v>9.429818419676533e-05</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>22.58684162813598</v>
+        <v>7.302872302383184</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>9.429818419676533e-05</v>
+        <v>1.484911861394982</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>7.302872302383184</v>
+        <v>0.005029105466145348</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.484911861394982</v>
+        <v>3.51879211491142</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.005029105466145348</v>
+        <v>0.9586405875836093</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.51879211491142</v>
+        <v>1.726393764828545</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9586405875836093</v>
+        <v>18</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.726393764828545</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2891253486624766</v>
       </c>
     </row>
@@ -6820,72 +6718,66 @@
         <v>7.617423788970756e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.1330323411816722</v>
+        <v>2.673142962914841e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.189410514588358</v>
+        <v>2.276636611530924e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>2.673142962914841e-07</v>
+        <v>0.04765227814358997</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.276636611530924e-06</v>
+        <v>0.07935419580861175</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.04765227814358997</v>
+        <v>0.008567429530871151</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.07935419580861175</v>
+        <v>1.755439154151621</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.008567429530871151</v>
+        <v>1.640054729857905</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.67486770033986</v>
+        <v>4.508487186589246</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.640054729857905</v>
+        <v>1.197043619227107e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.508487186589246</v>
+        <v>140877052.7521378</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.197043619227107e-15</v>
+        <v>8.306441257492692e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>140877052.7521378</v>
+        <v>23.75693944076379</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>8.306441257492692e-07</v>
+        <v>0.0001281865411910595</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>23.75693944076379</v>
+        <v>10.35346448727243</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001281865411910595</v>
+        <v>1.162510326765246</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>10.35346448727243</v>
+        <v>0.01374085718057769</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.162510326765246</v>
+        <v>3.091892875145207</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01374085718057769</v>
+        <v>0.9586792978269334</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.091892875145207</v>
+        <v>1.714947002357951</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9586792978269334</v>
+        <v>18</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.714947002357951</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.2649772883740303</v>
       </c>
     </row>
@@ -6900,72 +6792,66 @@
         <v>7.482957505756657e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.111902563904076</v>
+        <v>2.60034131268957e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.236109348652457</v>
+        <v>2.280172614016584e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>2.60034131268957e-07</v>
+        <v>0.04596756157796835</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.280172614016584e-06</v>
+        <v>0.08159803574991639</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.04596756157796835</v>
+        <v>0.008770474639771788</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.08159803574991639</v>
+        <v>1.77555373620765</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.008770474639771788</v>
+        <v>1.713570048999008</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.699835802107827</v>
+        <v>4.248847115122845</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.713570048999008</v>
+        <v>1.059179779503743e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.248847115122845</v>
+        <v>156874727.7711585</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.059179779503743e-15</v>
+        <v>7.449795494266793e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>156874727.7711585</v>
+        <v>26.06607566195434</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>7.449795494266793e-07</v>
+        <v>0.0001363799810052564</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>26.06607566195434</v>
+        <v>11.01825595222462</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001363799810052564</v>
+        <v>1.10885715755551</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>11.01825595222462</v>
+        <v>0.01655679757551547</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.10885715755551</v>
+        <v>2.97032354982567</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01655679757551547</v>
+        <v>0.9602047195769672</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.97032354982567</v>
+        <v>1.713153860338327</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9602047195769672</v>
+        <v>18</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.713153860338327</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.2594584891814267</v>
       </c>
     </row>
@@ -6980,72 +6866,66 @@
         <v>7.350802011116912e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.08568618153922554</v>
+        <v>2.513407379210157e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.271466490687521</v>
+        <v>2.283519284305102e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>2.513407379210157e-07</v>
+        <v>0.04432132865697433</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.283519284305102e-06</v>
+        <v>0.08309852002828995</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.04432132865697433</v>
+        <v>0.008869282358057293</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.08309852002828995</v>
+        <v>1.786147655843675</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.008869282358057293</v>
+        <v>1.838768058437584</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.70682279346256</v>
+        <v>4.276080432479627</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.838768058437584</v>
+        <v>1.045731423610834e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.276080432479627</v>
+        <v>158629442.7539908</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.045731423610834e-15</v>
+        <v>7.422542571558587e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>158629442.7539908</v>
+        <v>26.31405364514733</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>7.422542571558587e-07</v>
+        <v>0.0001323905273690205</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>26.31405364514733</v>
+        <v>10.38103339384946</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001323905273690205</v>
+        <v>1.189460807674804</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>10.38103339384946</v>
+        <v>0.01426717828635622</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.189460807674804</v>
+        <v>3.189369556007994</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01426717828635622</v>
+        <v>0.9618822298037356</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.189369556007994</v>
+        <v>1.683129073354808</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9618822298037356</v>
+        <v>18</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.683129073354808</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.2530695323428562</v>
       </c>
     </row>
@@ -7060,72 +6940,66 @@
         <v>7.218206933700563e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.05622669432484396</v>
+        <v>2.456473206483643e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.296379446605848</v>
+        <v>2.286697123959397e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>2.456473206483643e-07</v>
+        <v>0.04294593440878464</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.286697123959397e-06</v>
+        <v>0.08541037586202307</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.04294593440878464</v>
+        <v>0.009138993889046213</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.08541037586202307</v>
+        <v>1.802497665295448</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.009138993889046213</v>
+        <v>1.762151222659503</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.732790473434216</v>
+        <v>4.302885816129349</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.762151222659503</v>
+        <v>1.032742968371192e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.302885816129349</v>
+        <v>163083109.5369674</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.032742968371192e-15</v>
+        <v>7.254023116759543e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>163083109.5369674</v>
+        <v>27.46693589752129</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>7.254023116759543e-07</v>
+        <v>0.0001557986303669172</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>27.46693589752129</v>
+        <v>9.727697074046283</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001557986303669172</v>
+        <v>1.51904451715395</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>9.727697074046283</v>
+        <v>0.01474292687301174</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.51904451715395</v>
+        <v>3.219153588968961</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01474292687301174</v>
+        <v>0.9621865668051188</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.219153588968961</v>
+        <v>1.657736430347747</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9621865668051188</v>
+        <v>15</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.657736430347747</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.2455347805364912</v>
       </c>
     </row>
@@ -7140,72 +7014,66 @@
         <v>7.078349502192152e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.02701614956583137</v>
+        <v>2.40654740329967e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.313345095299724</v>
+        <v>2.289717471779909e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>2.40654740329967e-07</v>
+        <v>0.04150760073043122</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.289717471779909e-06</v>
+        <v>0.08816145394547745</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.04150760073043122</v>
+        <v>0.009494930652457987</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.08816145394547745</v>
+        <v>1.799087689446023</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.009494930652457987</v>
+        <v>1.649977865625517</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.73830860248388</v>
+        <v>4.64303893959622</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.649977865625517</v>
+        <v>8.869665421820296e-16</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.64303893959622</v>
+        <v>194717075.0689768</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>8.869665421820296e-16</v>
+        <v>6.047373415140389e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>194717075.0689768</v>
+        <v>33.62910523542469</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>6.047373415140389e-07</v>
+        <v>0.0001590214293095886</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>33.62910523542469</v>
+        <v>9.621593841743303</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001590214293095886</v>
+        <v>1.525920331807057</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>9.621593841743303</v>
+        <v>0.0147214196406137</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.525920331807057</v>
+        <v>3.18544175313779</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.0147214196406137</v>
+        <v>0.9628897542670795</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.18544175313779</v>
+        <v>1.678293966080705</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9628897542670795</v>
+        <v>18</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.678293966080705</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.2739185839673043</v>
       </c>
     </row>
@@ -7220,72 +7088,66 @@
         <v>6.931771157640905e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.001166486617138911</v>
+        <v>2.361057620722122e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.322571633558324</v>
+        <v>2.292581518313303e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>2.361057620722122e-07</v>
+        <v>0.04035931309861814</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.292581518313303e-06</v>
+        <v>0.09084847492111352</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.04035931309861814</v>
+        <v>0.009882186646798042</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.09084847492111352</v>
+        <v>1.823293236071069</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.009882186646798042</v>
+        <v>1.928539678384096</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.772825468195409</v>
+        <v>4.480157021060663</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.928539678384096</v>
+        <v>8.885390675256735e-16</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.480157021060663</v>
+        <v>193906101.4617949</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>8.885390675256735e-16</v>
+        <v>6.122601984088697e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>193906101.4617949</v>
+        <v>33.4086923619913</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>6.122601984088697e-07</v>
+        <v>0.0001293082191015864</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>33.4086923619913</v>
+        <v>9.639118133525232</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001293082191015864</v>
+        <v>1.247959557019483</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>9.639118133525232</v>
+        <v>0.01201436263017755</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.247959557019483</v>
+        <v>3.206927886313717</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01201436263017755</v>
+        <v>0.9632549351940607</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.206927886313717</v>
+        <v>1.607027060496137</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9632549351940607</v>
+        <v>15</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.607027060496137</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.3275725524098597</v>
       </c>
     </row>
@@ -7300,72 +7162,66 @@
         <v>6.780354458131719e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.02793287506097181</v>
+        <v>2.313638494046468e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.326432537332585</v>
+        <v>2.295323918325353e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>2.313638494046468e-07</v>
+        <v>0.03963150589663809</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.295323918325353e-06</v>
+        <v>0.0932186613471833</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.03963150589663809</v>
+        <v>0.01026011569875327</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.0932186613471833</v>
+        <v>1.841626412417575</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.01026011569875327</v>
+        <v>1.933966020660151</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.797868718395401</v>
+        <v>4.371303890287387</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.933966020660151</v>
+        <v>9.333424094059105e-16</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.371303890287387</v>
+        <v>188695999.0587511</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>9.333424094059105e-16</v>
+        <v>6.337062244307357e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>188695999.0587511</v>
+        <v>33.23275788766929</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>6.337062244307357e-07</v>
+        <v>0.000122433264955906</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>33.23275788766929</v>
+        <v>9.677133468327861</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.000122433264955906</v>
+        <v>1.076497982894743</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>9.677133468327861</v>
+        <v>0.01146549720925681</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.076497982894743</v>
+        <v>3.057296032182312</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01146549720925681</v>
+        <v>0.9634751858956533</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.057296032182312</v>
+        <v>1.593752793947769</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9634751858956533</v>
+        <v>15</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.593752793947769</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.3445892784448905</v>
       </c>
     </row>
@@ -7380,72 +7236,66 @@
         <v>6.630185279331164e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.05570177175217476</v>
+        <v>2.247039524509943e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.32322555539608</v>
+        <v>2.297953917093139e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>2.247039524509943e-07</v>
+        <v>0.03882207536596666</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.297953917093139e-06</v>
+        <v>0.09516388198277029</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.03882207536596666</v>
+        <v>0.01056260122082619</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.09516388198277029</v>
+        <v>1.868567239709578</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.01056260122082619</v>
+        <v>1.684507645188542</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.835635274695642</v>
+        <v>4.732133443796229</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.684507645188542</v>
+        <v>7.583444577785434e-16</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.732133443796229</v>
+        <v>231250972.9435873</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>7.583444577785434e-16</v>
+        <v>5.200420910016204e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>231250972.9435873</v>
+        <v>40.5539960383402</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>5.200420910016204e-07</v>
+        <v>0.0001314982328499211</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>40.5539960383402</v>
+        <v>9.832609575834846</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001314982328499211</v>
+        <v>1.10130699874635</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.832609575834846</v>
+        <v>0.01271327690736746</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.10130699874635</v>
+        <v>3.024044501517399</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01271327690736746</v>
+        <v>0.9624454627670596</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.024044501517399</v>
+        <v>1.562346617263225</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9624454627670596</v>
+        <v>15</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.562346617263225</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.3180946882157386</v>
       </c>
     </row>
@@ -7460,72 +7310,66 @@
         <v>6.489998183079839e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.08880633876216892</v>
+        <v>2.167314561888995e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.309063887700891</v>
+        <v>2.300482926582808e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>2.167314561888995e-07</v>
+        <v>0.03851100179818714</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2.300482926582808e-06</v>
+        <v>0.09667254650932842</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.03851100179818714</v>
+        <v>0.01082748264181103</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.09667254650932842</v>
+        <v>1.870528287123514</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.01082748264181103</v>
+        <v>1.77553411351008</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.844811560239179</v>
+        <v>4.210499759106054</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.77553411351008</v>
+        <v>6.66172382471898e-16</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.210499759106054</v>
+        <v>255751973.484753</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>6.66172382471898e-16</v>
+        <v>4.688254602009189e-07</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>255751973.484753</v>
+        <v>43.57371729044212</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>4.688254602009189e-07</v>
+        <v>0.00015372168179565</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>43.57371729044212</v>
+        <v>9.564634045762741</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.00015372168179565</v>
+        <v>1.279597479509508</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>9.564634045762741</v>
+        <v>0.01406280139368889</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.279597479509508</v>
+        <v>3.018463926588674</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01406280139368889</v>
+        <v>0.9628759747653174</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.018463926588674</v>
+        <v>1.524017771791314</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9628759747653174</v>
+        <v>15</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.524017771791314</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.277116911716006</v>
       </c>
     </row>
@@ -7540,72 +7384,66 @@
         <v>6.364374169709178e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.1292265418757358</v>
+        <v>2.106649377371225e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.286412856799372</v>
+        <v>2.302997701593849e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>2.106649377371225e-07</v>
+        <v>0.04019027858660847</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>2.302997701593849e-06</v>
+        <v>0.0994371701395676</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.04019027858660847</v>
+        <v>0.01150000181880137</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.0994371701395676</v>
+        <v>1.867033311986613</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.01150000181880137</v>
+        <v>1.691853239355789</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.842234685196332</v>
+        <v>4.331892468116364</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.691853239355789</v>
+        <v>8.331118674562332e-16</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.331892468116364</v>
+        <v>205036131.504441</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>8.331118674562332e-16</v>
+        <v>5.852584604796177e-07</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>205036131.504441</v>
+        <v>35.02386896737068</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>5.852584604796177e-07</v>
+        <v>0.0001669560490972934</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>35.02386896737068</v>
+        <v>9.232708011530377</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001669560490972934</v>
+        <v>1.495354707869228</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>9.232708011530377</v>
+        <v>0.01423181733448917</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.495354707869228</v>
+        <v>3.053641280373601</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.01423181733448917</v>
+        <v>0.9606399569231591</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>3.053641280373601</v>
+        <v>1.504324401583038</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9606399569231591</v>
+        <v>15</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.504324401583038</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.2580865861619715</v>
       </c>
     </row>
@@ -7620,72 +7458,66 @@
         <v>6.257421355634312e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.1757812611918617</v>
+        <v>2.05490563866021e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.261593595253993</v>
+        <v>2.30563163925805e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>2.05490563866021e-07</v>
+        <v>0.04336156501524228</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>2.30563163925805e-06</v>
+        <v>0.1039310239683241</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.04336156501524228</v>
+        <v>0.01267847919262212</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1039310239683241</v>
+        <v>1.8046912899812</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.01267847919262212</v>
+        <v>1.711775113112675</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.753095298010467</v>
+        <v>4.578286027792901</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.711775113112675</v>
+        <v>7.454182445900439e-16</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.578286027792901</v>
+        <v>226180817.5407085</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>7.454182445900439e-16</v>
+        <v>5.220779173576606e-07</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>226180817.5407085</v>
+        <v>38.13392931370921</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>5.220779173576606e-07</v>
+        <v>0.000124085822868656</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>38.13392931370921</v>
+        <v>9.638898191255826</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.000124085822868656</v>
+        <v>1.205750745224678</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>9.638898191255826</v>
+        <v>0.01152861009616794</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.205750745224678</v>
+        <v>3.175571264246271</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01152861009616794</v>
+        <v>0.9579025554131387</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.175571264246271</v>
+        <v>1.629638614278459</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9579025554131387</v>
+        <v>16</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.629638614278459</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.3124587964461294</v>
       </c>
     </row>
@@ -7700,72 +7532,66 @@
         <v>6.172100765856268e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.2249579587848928</v>
+        <v>2.008556243051864e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.233350551207111</v>
+        <v>2.308406607773894e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>2.008556243051864e-07</v>
+        <v>0.04583589913902918</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2.308406607773894e-06</v>
+        <v>0.1069281598992387</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.04583589913902918</v>
+        <v>0.01353304533312809</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1069281598992387</v>
+        <v>1.795451033384352</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.01353304533312809</v>
+        <v>1.767186498132135</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.744014883683752</v>
+        <v>4.562864366684938</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.767186498132135</v>
+        <v>8.692081861054015e-16</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>4.562864366684938</v>
+        <v>186673266.3908462</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>8.692081861054015e-16</v>
+        <v>6.268404013612658e-07</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>186673266.3908462</v>
+        <v>30.28921802873113</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>6.268404013612658e-07</v>
+        <v>0.0001171691169320911</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>30.28921802873113</v>
+        <v>7.775898678329957</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001171691169320911</v>
+        <v>1.448364740748881</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>7.775898678329957</v>
+        <v>0.007084583817606821</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.448364740748881</v>
+        <v>3.293310040611221</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.007084583817606821</v>
+        <v>0.957679569199983</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.293310040611221</v>
+        <v>1.699750561328807</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.957679569199983</v>
+        <v>16</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.699750561328807</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.2882935277852206</v>
       </c>
     </row>
@@ -7780,72 +7606,66 @@
         <v>6.100469010908724e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.273176374034901</v>
+        <v>1.979475861466513e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.198169205089492</v>
+        <v>2.311274132775815e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1.979475861466513e-07</v>
+        <v>0.04752624048222527</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2.311274132775815e-06</v>
+        <v>0.1085911611822859</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.04752624048222527</v>
+        <v>0.01405061308443804</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1085911611822859</v>
+        <v>1.792661565436167</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.01405061308443804</v>
+        <v>1.803816244647298</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.739820006888981</v>
+        <v>4.138286909927288</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.803816244647298</v>
+        <v>1.056714658675797e-15</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.138286909927288</v>
+        <v>153032632.0382036</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1.056714658675797e-15</v>
+        <v>7.639042893617799e-07</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>153032632.0382036</v>
+        <v>24.7471862926366</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>7.639042893617799e-07</v>
+        <v>0.0001289920758078377</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>24.7471862926366</v>
+        <v>7.06855498158635</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001289920758078377</v>
+        <v>1.733925796622343</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>7.06855498158635</v>
+        <v>0.006445020641016662</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.733925796622343</v>
+        <v>3.247306746031148</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.006445020641016662</v>
+        <v>0.9584966963733536</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.247306746031148</v>
+        <v>1.704234589409915</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9584966963733536</v>
+        <v>16</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.704234589409915</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.234366720710676</v>
       </c>
     </row>
@@ -7860,72 +7680,66 @@
         <v>6.029013108061736e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.3188008098408632</v>
+        <v>1.97616816054402e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.15655665228358</v>
+        <v>2.314197360877702e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1.97616816054402e-07</v>
+        <v>0.04887564170069051</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>2.314197360877702e-06</v>
+        <v>0.1097732106954971</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.04887564170069051</v>
+        <v>0.01443915273770964</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1097732106954971</v>
+        <v>1.790076170126693</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.01443915273770964</v>
+        <v>1.896383620331769</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.732657093508239</v>
+        <v>4.021732890532109</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.896383620331769</v>
+        <v>1.118851583149564e-15</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>4.021732890532109</v>
+        <v>148176813.6290092</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1.118851583149564e-15</v>
+        <v>7.896763024449197e-07</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>148176813.6290092</v>
+        <v>24.56591720581843</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>7.896763024449197e-07</v>
+        <v>0.0001290179722334541</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>24.56591720581843</v>
+        <v>7.854095908263793</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001290179722334541</v>
+        <v>1.306970501030753</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>7.854095908263793</v>
+        <v>0.007958708757146242</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.306970501030753</v>
+        <v>3.123070723476693</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.007958708757146242</v>
+        <v>0.9591261491558155</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.123070723476693</v>
+        <v>1.681834702230536</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9591261491558155</v>
+        <v>14</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.681834702230536</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.2178391338324078</v>
       </c>
     </row>
@@ -7940,72 +7754,66 @@
         <v>5.948510570394432e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.3602045376509168</v>
+        <v>1.97616816054402e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.112179039367504</v>
+        <v>2.317173422109629e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1.97616816054402e-07</v>
+        <v>0.05060009297421697</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>2.317173422109629e-06</v>
+        <v>0.111048440682261</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.05060009297421697</v>
+        <v>0.01489204033888074</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.111048440682261</v>
+        <v>1.781130073663731</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.01489204033888074</v>
+        <v>1.911328000360827</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.718614402422249</v>
+        <v>3.997986255226548</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.911328000360827</v>
+        <v>1.132182227106592e-15</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.997986255226548</v>
+        <v>146829637.5510065</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>1.132182227106592e-15</v>
+        <v>7.953228933461572e-07</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>146829637.5510065</v>
+        <v>24.40865149222974</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>7.953228933461572e-07</v>
+        <v>0.0001330519174853466</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>24.40865149222974</v>
+        <v>8.941745723932392</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001330519174853466</v>
+        <v>1.212160399318156</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>8.941745723932392</v>
+        <v>0.01063814165968339</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.212160399318156</v>
+        <v>2.9840427286907</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.01063814165968339</v>
+        <v>0.9593566126287993</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.9840427286907</v>
+        <v>1.712731256723936</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9593566126287993</v>
+        <v>14</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.712731256723936</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.2155407750829321</v>
       </c>
     </row>
@@ -8020,72 +7828,66 @@
         <v>5.862421635294295e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.3947254123811276</v>
+        <v>1.967739634056488e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.067840939385358</v>
+        <v>2.320230718832445e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1.967739634056488e-07</v>
+        <v>0.05308961837534623</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2.320230718832445e-06</v>
+        <v>0.1129347092312253</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.05308961837534623</v>
+        <v>0.01557140486406543</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1129347092312253</v>
+        <v>1.777782353327415</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.01557140486406543</v>
+        <v>1.819467784003531</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.71886527275815</v>
+        <v>3.877895362985599</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.819467784003531</v>
+        <v>1.203390985195686e-15</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.877895362985599</v>
+        <v>139652314.0129551</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>1.203390985195686e-15</v>
+        <v>8.348275375708624e-07</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>139652314.0129551</v>
+        <v>23.46945617131441</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>8.348275375708624e-07</v>
+        <v>0.0001413334531733649</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>23.46945617131441</v>
+        <v>9.60453992550381</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001413334531733649</v>
+        <v>1.191282477725253</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>9.60453992550381</v>
+        <v>0.01303761350976349</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.191282477725253</v>
+        <v>2.892447901961677</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.01303761350976349</v>
+        <v>0.9577973187104426</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.892447901961677</v>
+        <v>1.708238153247161</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9577973187104426</v>
+        <v>14</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.708238153247161</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.2099266407409893</v>
       </c>
     </row>
@@ -8100,72 +7902,66 @@
         <v>5.785273400787053e-08</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.4183183153400076</v>
+        <v>1.948863472573898e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-1.020374169379208</v>
+        <v>2.323409244384338e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1.948863472573898e-07</v>
+        <v>0.05615642478256482</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>2.323409244384338e-06</v>
+        <v>0.1158898741713814</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0.05615642478256482</v>
+        <v>0.01658088731815343</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.1158898741713814</v>
+        <v>1.771236351909018</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.01658088731815343</v>
+        <v>1.870929910689587</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.712572357179583</v>
+        <v>3.886101255175014</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.870929910689587</v>
+        <v>1.198314189650958e-15</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>3.886101255175014</v>
+        <v>144122628.3177791</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>1.198314189650958e-15</v>
+        <v>8.120351406072948e-07</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>144122628.3177791</v>
+        <v>24.89058186543206</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>8.120351406072948e-07</v>
+        <v>0.0001568100695175621</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>24.89058186543206</v>
+        <v>8.942064830661943</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001568100695175621</v>
+        <v>1.30847664511612</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>8.942064830661943</v>
+        <v>0.01253861523862237</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.30847664511612</v>
+        <v>2.924924475259123</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.01253861523862237</v>
+        <v>0.9573581063969655</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>2.924924475259123</v>
+        <v>1.662549039118397</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9573581063969655</v>
+        <v>14</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.662549039118397</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.1871608396920144</v>
       </c>
     </row>
@@ -8180,72 +7976,66 @@
         <v>5.733006544431599e-08</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.4275661060549673</v>
+        <v>2.00031675177356e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-0.958406698494783</v>
+        <v>2.326710100676389e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>2.00031675177356e-07</v>
+        <v>0.05816290138750131</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>2.326710100676389e-06</v>
+        <v>0.118158880880445</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0.05816290138750131</v>
+        <v>0.0173422572754022</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.118158880880445</v>
+        <v>1.76217039387083</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.0173422572754022</v>
+        <v>1.750839636469901</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.701379942219767</v>
+        <v>3.845988458481326</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.750839636469901</v>
+        <v>1.347508715058541e-15</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>3.845988458481326</v>
+        <v>129713112.4106677</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>1.347508715058541e-15</v>
+        <v>9.001560909979638e-07</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>129713112.4106677</v>
+        <v>22.6724964735199</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>9.001560909979638e-07</v>
+        <v>0.0001582823788378163</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>22.6724964735199</v>
+        <v>8.523627347750654</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001582823788378163</v>
+        <v>1.366290026935922</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>8.523627347750654</v>
+        <v>0.01149956671014664</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.366290026935922</v>
+        <v>2.916003112727053</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.01149956671014664</v>
+        <v>0.9572854650316762</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>2.916003112727053</v>
+        <v>1.704079965961407</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9572854650316762</v>
+        <v>12</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.704079965961407</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.1854745398198775</v>
       </c>
     </row>
@@ -8260,72 +8050,66 @@
         <v>5.706961673154115e-08</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.4291193185513776</v>
+        <v>1.99005483749524e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-0.8765030648481567</v>
+        <v>2.330040161085978e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>1.99005483749524e-07</v>
+        <v>0.05808282292008546</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>2.330040161085978e-06</v>
+        <v>0.1185349882003269</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0.05808282292008546</v>
+        <v>0.01742294018046421</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.1185349882003269</v>
+        <v>1.754624297190713</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.01742294018046421</v>
+        <v>1.812587888629731</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.689194501679252</v>
+        <v>3.68381729948445</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.812587888629731</v>
+        <v>1.468761803746588e-15</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>3.68381729948445</v>
+        <v>118249643.3067153</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>1.468761803746588e-15</v>
+        <v>9.835646154684578e-07</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>118249643.3067153</v>
+        <v>20.53766419783597</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>9.835646154684578e-07</v>
+        <v>0.0001485960033771116</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>20.53766419783597</v>
+        <v>9.084633807499808</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001485960033771116</v>
+        <v>1.271017302810029</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>9.084633807499808</v>
+        <v>0.01226371306890164</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.271017302810029</v>
+        <v>2.854439776294702</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.01226371306890164</v>
+        <v>0.9564116119835816</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>2.854439776294702</v>
+        <v>1.727570437452293</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9564116119835816</v>
+        <v>12</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.727570437452293</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.1977898582130461</v>
       </c>
     </row>
@@ -8340,72 +8124,66 @@
         <v>5.697870221813608e-08</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.4304368873046803</v>
+        <v>2.033272560152424e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-0.7825245673014432</v>
+        <v>2.333336559899111e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>2.033272560152424e-07</v>
+        <v>0.05765517224093725</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>2.333336559899111e-06</v>
+        <v>0.1185537671669834</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0.05765517224093725</v>
+        <v>0.01737901796598772</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.1185537671669834</v>
+        <v>1.761878806589577</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.01737901796598772</v>
+        <v>1.932088502293578</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.693258446218829</v>
+        <v>3.654273789231779</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.932088502293578</v>
+        <v>1.492606642932457e-15</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>3.654273789231779</v>
+        <v>114168973.1163708</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>1.492606642932457e-15</v>
+        <v>1.021645767736719e-06</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>114168973.1163708</v>
+        <v>19.45546251860844</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>1.021645767736719e-06</v>
+        <v>0.0001473045234644986</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>19.45546251860844</v>
+        <v>9.332751663528171</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001473045234644986</v>
+        <v>1.279731033244953</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>9.332751663528171</v>
+        <v>0.01283026135211288</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.279731033244953</v>
+        <v>2.812622792125879</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.01283026135211288</v>
+        <v>0.955681531656804</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>2.812622792125879</v>
+        <v>1.743604834465887</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.955681531656804</v>
+        <v>9</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.743604834465887</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.2003600116398455</v>
       </c>
     </row>
@@ -8420,72 +8198,66 @@
         <v>5.69069756514001e-08</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.4317156359192241</v>
+        <v>2.058316587976302e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-0.6865574785545165</v>
+        <v>2.336626501202131e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>2.058316587976302e-07</v>
+        <v>0.05802697190494144</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>2.336626501202131e-06</v>
+        <v>0.1186153046147758</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0.05802697190494144</v>
+        <v>0.01743708043213466</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.1186153046147758</v>
+        <v>1.76715464934945</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.01743708043213466</v>
+        <v>1.85980136827464</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.694827240352035</v>
+        <v>3.640577605272154</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.85980136827464</v>
+        <v>1.503858412086989e-15</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>3.640577605272154</v>
+        <v>113864614.8877621</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>1.503858412086989e-15</v>
+        <v>1.027742196296299e-06</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>113864614.8877621</v>
+        <v>19.49775067879721</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>1.027742196296299e-06</v>
+        <v>0.0001430806259535214</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>19.49775067879721</v>
+        <v>8.918010968860685</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001430806259535214</v>
+        <v>1.296379640397785</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>8.918010968860685</v>
+        <v>0.01137933376485335</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.296379640397785</v>
+        <v>2.903179159910796</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.01137933376485335</v>
+        <v>0.9568050426692193</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>2.903179159910796</v>
+        <v>1.723021935795825</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9568050426692193</v>
+        <v>9</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.723021935795825</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.1992785537747368</v>
       </c>
     </row>
@@ -8500,72 +8272,66 @@
         <v>5.669371463871025e-08</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-0.4305298307714444</v>
+        <v>2.077966418212128e-07</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>-0.596495782662342</v>
+        <v>2.339955203916814e-06</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>2.077966418212128e-07</v>
+        <v>0.05927726853941519</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>2.339955203916814e-06</v>
+        <v>0.1185774408477746</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>0.05927726853941519</v>
+        <v>0.0175746430461826</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.1185774408477746</v>
+        <v>1.762614041583978</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.0175746430461826</v>
+        <v>1.904105384813093</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.690238606012232</v>
+        <v>3.653413121684507</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>1.904105384813093</v>
+        <v>1.493309979441374e-15</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>3.653413121684507</v>
+        <v>112769497.1843445</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>1.493309979441374e-15</v>
+        <v>1.030296329279894e-06</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>112769497.1843445</v>
+        <v>18.99036252234864</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>1.030296329279894e-06</v>
+        <v>0.0001405915996349971</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>18.99036252234864</v>
+        <v>8.660549331472486</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.0001405915996349971</v>
+        <v>1.315579356156556</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>8.660549331472486</v>
+        <v>0.01054508905969456</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>1.315579356156556</v>
+        <v>2.973333935674132</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.01054508905969456</v>
+        <v>0.9574553543397254</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>2.973333935674132</v>
+        <v>1.735096395101479</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9574553543397254</v>
+        <v>22</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>1.735096395101479</v>
-      </c>
-      <c r="Y38" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z38" s="2" t="n">
         <v>0.2014056993736153</v>
       </c>
     </row>
@@ -8580,72 +8346,66 @@
         <v>5.627349511819058e-08</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.4211112950019771</v>
+        <v>2.10254006801284e-07</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>-0.5188136418302269</v>
+        <v>2.343358966700768e-06</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>2.10254006801284e-07</v>
+        <v>0.06122783580499993</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>2.343358966700768e-06</v>
+        <v>0.1186776261679252</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>0.06122783580499993</v>
+        <v>0.01783350453128208</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.1186776261679252</v>
+        <v>1.752453175475669</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.01783350453128208</v>
+        <v>1.783133722517682</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1.676911796740314</v>
+        <v>3.681861422161636</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>1.783133722517682</v>
+        <v>1.470322688634564e-15</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>3.681861422161636</v>
+        <v>114905667.8057481</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>1.470322688634564e-15</v>
+        <v>1.009863608711522e-06</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>114905667.8057481</v>
+        <v>19.41312992489123</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>1.009863608711522e-06</v>
+        <v>0.0001416731912913844</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>19.41312992489123</v>
+        <v>9.139331722124432</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.0001416731912913844</v>
+        <v>1.336375621385257</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>9.139331722124432</v>
+        <v>0.01183359109783229</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>1.336375621385257</v>
+        <v>2.955151544857022</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.01183359109783229</v>
+        <v>0.9581787100264842</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>2.955151544857022</v>
+        <v>1.732583901228599</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.9581787100264842</v>
+        <v>25</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1.732583901228599</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z39" s="2" t="n">
         <v>0.2148898103649322</v>
       </c>
     </row>
@@ -8660,72 +8420,66 @@
         <v>5.559491489713186e-08</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.4000112312908595</v>
+        <v>2.10719163945889e-07</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-0.4651443728497857</v>
+        <v>2.346830474090337e-06</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>2.10719163945889e-07</v>
+        <v>0.06268112998260571</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>2.346830474090337e-06</v>
+        <v>0.1196622382712432</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>0.06268112998260571</v>
+        <v>0.01824835752359787</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.1196622382712432</v>
+        <v>1.756649139107246</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.01824835752359787</v>
+        <v>1.706486647263965</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1.683412217988587</v>
+        <v>3.824683379508599</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>1.706486647263965</v>
+        <v>1.362562896888673e-15</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>3.824683379508599</v>
+        <v>126124932.0281824</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>1.362562896888673e-15</v>
+        <v>9.22453587934042e-07</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>126124932.0281824</v>
+        <v>21.67496720995325</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>9.22453587934042e-07</v>
+        <v>0.0001479169714924453</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>21.67496720995325</v>
+        <v>9.827772291868978</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0.0001479169714924453</v>
+        <v>1.360987980297297</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>9.827772291868978</v>
+        <v>0.01428657669929491</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>1.360987980297297</v>
+        <v>2.870370059892971</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.01428657669929491</v>
+        <v>0.958773889497518</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>2.870370059892971</v>
+        <v>1.731613877738898</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.958773889497518</v>
+        <v>25</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>1.731613877738898</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z40" s="2" t="n">
         <v>0.2352762637689877</v>
       </c>
     </row>
@@ -8740,72 +8494,66 @@
         <v>5.457383816162602e-08</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.3687732729200554</v>
+        <v>2.10719163945889e-07</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-0.4509592066919432</v>
+        <v>2.350302711525488e-06</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>2.10719163945889e-07</v>
+        <v>0.06307043219585357</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>2.350302711525488e-06</v>
+        <v>0.1226290949739323</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>0.06307043219585357</v>
+        <v>0.01901557822904014</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.1226290949739323</v>
+        <v>1.759423913325123</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.01901557822904014</v>
+        <v>1.692184955934583</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1.690167881364042</v>
+        <v>4.029044550138763</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>1.692184955934583</v>
+        <v>9.965296566031696e-16</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>4.029044550138763</v>
+        <v>177618419.3013198</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>9.965296566031696e-16</v>
+        <v>6.553863463910292e-07</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>177618419.3013198</v>
+        <v>31.43881943053564</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>6.553863463910292e-07</v>
+        <v>0.0001483106281319478</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>31.43881943053564</v>
+        <v>9.299058858611401</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0.0001483106281319478</v>
+        <v>1.403854236821857</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>9.299058858611401</v>
+        <v>0.0128247901468665</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>1.403854236821857</v>
+        <v>2.918947133171303</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.0128247901468665</v>
+        <v>0.959931301525993</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>2.918947133171303</v>
+        <v>1.720198975672717</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.959931301525993</v>
+        <v>25</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1.720198975672717</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z41" s="2" t="n">
         <v>0.2349005317593289</v>
       </c>
     </row>
@@ -8820,72 +8568,66 @@
         <v>5.316849192281143e-08</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.329050573979037</v>
+        <v>2.093385771540866e-07</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-0.4869789809657901</v>
+        <v>2.353685884547296e-06</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>2.093385771540866e-07</v>
+        <v>0.06226725337380109</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>2.353685884547296e-06</v>
+        <v>0.1280301190854295</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>0.06226725337380109</v>
+        <v>0.02026817139530892</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.1280301190854295</v>
+        <v>1.804895848257462</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.02026817139530892</v>
+        <v>1.785435053317382</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.743303368923572</v>
+        <v>3.869648897553152</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>1.785435053317382</v>
+        <v>9.020978726866762e-16</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>3.869648897553152</v>
+        <v>194993595.1416022</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>9.020978726866762e-16</v>
+        <v>6.046727032720624e-07</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>194993595.1416022</v>
+        <v>34.30001830035407</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>6.046727032720624e-07</v>
+        <v>0.0001353881404277413</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>34.30001830035407</v>
+        <v>8.24329513454947</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0.0001353881404277413</v>
+        <v>1.419764719154155</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>8.24329513454947</v>
+        <v>0.009199883366391643</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>1.419764719154155</v>
+        <v>3.044478850209316</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.009199883366391643</v>
+        <v>0.9621989744838936</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>3.044478850209316</v>
+        <v>1.643624997023178</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.9621989744838936</v>
+        <v>33</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>1.643624997023178</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z42" s="2" t="n">
         <v>0.2386347817721137</v>
       </c>
     </row>
@@ -8900,72 +8642,66 @@
         <v>5.149595029268659e-08</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.2833829188411964</v>
+        <v>2.037407972798774e-07</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-0.5652495462037672</v>
+        <v>2.356906547781525e-06</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>2.037407972798774e-07</v>
+        <v>0.06065149572027272</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>2.356906547781525e-06</v>
+        <v>0.1338872296675876</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>0.06065149572027272</v>
+        <v>0.02160289344376903</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.1338872296675876</v>
+        <v>1.810349676773335</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.02160289344376903</v>
+        <v>1.803941415421002</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.742455858895176</v>
+        <v>3.854913468674151</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>1.803941415421002</v>
+        <v>9.090076023360988e-16</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>3.854913468674151</v>
+        <v>200937749.2739817</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>9.090076023360988e-16</v>
+        <v>5.915554157791825e-07</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>200937749.2739817</v>
+        <v>36.70207193847714</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>5.915554157791825e-07</v>
+        <v>0.0001244896123384965</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>36.70207193847714</v>
+        <v>8.20878774709038</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0.0001244896123384965</v>
+        <v>1.407445425784744</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>8.20878774709038</v>
+        <v>0.008388632472237643</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>1.407445425784744</v>
+        <v>3.027005668167483</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.008388632472237643</v>
+        <v>0.9626526541687365</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>3.027005668167483</v>
+        <v>1.671538353029156</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9626526541687365</v>
+        <v>33</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>1.671538353029156</v>
-      </c>
-      <c r="Y43" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z43" s="2" t="n">
         <v>0.271715293834247</v>
       </c>
     </row>
@@ -9342,7 +9078,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.620867375592321</v>
+        <v>1.591773443889787</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.515562641528932</v>
@@ -9431,7 +9167,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.659198510310027</v>
+        <v>1.626615847716468</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.496201803747438</v>
@@ -9520,7 +9256,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.66591054393425</v>
+        <v>1.627807972973333</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.647742213600627</v>
@@ -9609,7 +9345,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.69585221744317</v>
+        <v>1.649593840754525</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.830094043873823</v>
@@ -9698,7 +9434,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.662644957548447</v>
+        <v>1.620976905727683</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.589185043066126</v>
@@ -9787,7 +9523,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.676328315902279</v>
+        <v>1.638067596950141</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.512546520635432</v>
@@ -9876,7 +9612,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.675551762787099</v>
+        <v>1.638149041216776</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.461925092982662</v>
@@ -9965,7 +9701,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.648274706616071</v>
+        <v>1.616637194040507</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.636697019193367</v>
@@ -10054,7 +9790,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.6654203808596</v>
+        <v>1.63157332478987</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.266424445515572</v>
@@ -10143,7 +9879,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.672462055760539</v>
+        <v>1.644355678363908</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.617613800968685</v>
@@ -10232,7 +9968,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.641259889801201</v>
+        <v>1.618443325539753</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.517200235096243</v>
@@ -10321,7 +10057,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.640087849620092</v>
+        <v>1.613619987225678</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.328410656462951</v>
@@ -10410,7 +10146,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.639817806395025</v>
+        <v>1.616710300804692</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.619632258995591</v>
@@ -10499,7 +10235,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.639180156364033</v>
+        <v>1.62241348548982</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.543203160374954</v>
@@ -10588,7 +10324,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.64972878987677</v>
+        <v>1.635692206974868</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.613832102783481</v>
@@ -10677,7 +10413,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.655386486755344</v>
+        <v>1.644973716686916</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.456338105092521</v>
@@ -10766,7 +10502,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.672047296400328</v>
+        <v>1.657854817224668</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.567314450502879</v>
@@ -10855,7 +10591,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.673714070333777</v>
+        <v>1.663788350926949</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.566407552986817</v>
@@ -10944,7 +10680,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.679276761015138</v>
+        <v>1.675895573627258</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.56849982662297</v>
@@ -11033,7 +10769,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.715402840196061</v>
+        <v>1.713791686353244</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.637060840368366</v>
@@ -11122,7 +10858,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.720823511702663</v>
+        <v>1.716753613601954</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.684679054333113</v>
@@ -11211,7 +10947,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.714206746731099</v>
+        <v>1.714144406400804</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.600953118149905</v>
@@ -11300,7 +11036,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.743743523215521</v>
+        <v>1.737459273677564</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.776218458369737</v>
@@ -11389,7 +11125,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.745097213712648</v>
+        <v>1.738153948592334</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.797806643272273</v>
@@ -11478,7 +11214,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.759630063964094</v>
+        <v>1.748021213080837</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.640972575272809</v>
@@ -11567,7 +11303,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.714261519070194</v>
+        <v>1.714958626218384</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.410757760556915</v>
@@ -11656,7 +11392,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.719476673106894</v>
+        <v>1.717412146239121</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.433505368099736</v>
@@ -11745,7 +11481,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.725085134323774</v>
+        <v>1.724139610217697</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.427695150542013</v>
@@ -11834,7 +11570,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.704702949138085</v>
+        <v>1.699767571441234</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.398465956405853</v>
@@ -11923,7 +11659,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.703531364765379</v>
+        <v>1.701466504642366</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.486348422435955</v>
@@ -12012,7 +11748,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.703570025457558</v>
+        <v>1.697099622133486</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.522109863476814</v>
@@ -12101,7 +11837,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.685376252201851</v>
+        <v>1.680065955888632</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.397123296178857</v>
@@ -12190,7 +11926,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.682438438225778</v>
+        <v>1.67804478835628</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.442391055597375</v>
@@ -12279,7 +12015,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.67674613662335</v>
+        <v>1.668617946788135</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.462498242708971</v>
@@ -12368,7 +12104,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.673968540708485</v>
+        <v>1.662770302774214</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.381118494424581</v>
@@ -12457,7 +12193,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.661479634092508</v>
+        <v>1.65057706127416</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.385247847598321</v>
@@ -12546,7 +12282,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.630983675177605</v>
+        <v>1.618926562858506</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.447138074046634</v>
@@ -12635,7 +12371,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.600230327959502</v>
+        <v>1.594544407509475</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.403602162254327</v>
@@ -12724,7 +12460,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.591495720513688</v>
+        <v>1.581215533175763</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.479727151062362</v>
@@ -12813,7 +12549,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.603947517281039</v>
+        <v>1.585884720245274</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.280284062214717</v>
@@ -12902,7 +12638,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.654509315277037</v>
+        <v>1.629181652122635</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.908939106743058</v>
@@ -12991,7 +12727,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.662930585030052</v>
+        <v>1.638231897261808</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.980853147029399</v>
@@ -13080,7 +12816,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.657176600003751</v>
+        <v>1.629190383145308</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.773395484265905</v>
@@ -13169,7 +12905,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.684747686262341</v>
+        <v>1.652962134451976</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.871660060625151</v>
@@ -13258,7 +12994,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.683935059366245</v>
+        <v>1.650653833259064</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.049585714490801</v>
@@ -13347,7 +13083,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.654609547637107</v>
+        <v>1.626129189447169</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.63975438273881</v>
@@ -13436,7 +13172,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.675681910373006</v>
+        <v>1.64133337539214</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.926586779698688</v>
@@ -13525,7 +13261,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.674593196693377</v>
+        <v>1.636334956714228</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.869275795916612</v>
@@ -13614,7 +13350,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.676458831404312</v>
+        <v>1.642057549669032</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.905024586054851</v>
@@ -13703,7 +13439,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.671842964381508</v>
+        <v>1.638061984185754</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.861571111158052</v>
@@ -13792,7 +13528,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.676521278533593</v>
+        <v>1.642913625220424</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.710575851914697</v>
@@ -13881,7 +13617,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.718568871432707</v>
+        <v>1.680029680413445</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.787679940316307</v>
@@ -13970,7 +13706,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.738582928546727</v>
+        <v>1.69919305129101</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.944574712569796</v>
@@ -14059,7 +13795,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.72483160858649</v>
+        <v>1.687955254386986</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.781294023474555</v>
@@ -14148,7 +13884,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.731384565179364</v>
+        <v>1.695972717488447</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.828422185898236</v>
@@ -14237,7 +13973,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.719886686648668</v>
+        <v>1.688686100149343</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.85865553740259</v>
@@ -14326,7 +14062,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.705020891424159</v>
+        <v>1.668408980537204</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.796861532327068</v>
@@ -14415,7 +14151,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.685508150470739</v>
+        <v>1.66299885395248</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.838993958081793</v>
@@ -14504,7 +14240,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.678309297981657</v>
+        <v>1.657551418215825</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.707803956890232</v>
@@ -14593,7 +14329,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.680552136760097</v>
+        <v>1.653914374417208</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.389158346985093</v>
@@ -14682,7 +14418,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.674252590435785</v>
+        <v>1.652591204263197</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.485111016532181</v>
@@ -14771,7 +14507,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.666956648079035</v>
+        <v>1.64774615211906</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.764749932669266</v>
@@ -14860,7 +14596,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.665741805628973</v>
+        <v>1.653081897811208</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.526927575346101</v>
@@ -14949,7 +14685,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.665276094955323</v>
+        <v>1.647338050904852</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.59232646924811</v>
@@ -15038,7 +14774,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.673096387540981</v>
+        <v>1.652721023110485</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.491811908802407</v>
@@ -15127,7 +14863,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.665902624920989</v>
+        <v>1.650012407712781</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.497864441447564</v>
@@ -15216,7 +14952,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.66807431254083</v>
+        <v>1.652878547932739</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.531189355971521</v>
@@ -15305,7 +15041,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.686955961499067</v>
+        <v>1.665662271488469</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.629966991459541</v>
@@ -15394,7 +15130,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.700095462209778</v>
+        <v>1.683795434953309</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.494502847668507</v>
@@ -15483,7 +15219,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.692829850750657</v>
+        <v>1.670759265811433</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.670167683143277</v>
@@ -15572,7 +15308,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.697251629130853</v>
+        <v>1.68080777847865</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.483325467395929</v>
@@ -15661,7 +15397,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.722296804381394</v>
+        <v>1.700722921844091</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.52755209694917</v>
@@ -15750,7 +15486,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.725105460182793</v>
+        <v>1.700329955668106</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.472655056122721</v>
@@ -15839,7 +15575,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.726707324056416</v>
+        <v>1.700233993450478</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.503325828835898</v>
@@ -15928,7 +15664,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.735613230170542</v>
+        <v>1.710829828034226</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.430120522731017</v>
@@ -16017,7 +15753,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.77710490965838</v>
+        <v>1.746353728610381</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.680975288365361</v>
@@ -16106,7 +15842,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.779161314391921</v>
+        <v>1.754056127601177</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.423029677223217</v>
@@ -16195,7 +15931,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.736164295584089</v>
+        <v>1.7158574491338</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.637302599087964</v>
@@ -16284,7 +16020,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.724296152602237</v>
+        <v>1.707310423379202</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.513372360186498</v>
@@ -16373,7 +16109,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.718845588649923</v>
+        <v>1.704197466929423</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.726571522271773</v>
@@ -16462,7 +16198,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.691369259028349</v>
+        <v>1.67471043048209</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.423511738271426</v>
@@ -16551,7 +16287,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.68076705223103</v>
+        <v>1.665925655597852</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.577839525110422</v>
@@ -16640,7 +16376,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.679933408614764</v>
+        <v>1.667575207186484</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.482490424957835</v>
@@ -16729,7 +16465,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.688638017634831</v>
+        <v>1.669296913618823</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.429842132092006</v>
@@ -16818,7 +16554,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.696004614248552</v>
+        <v>1.679753855397055</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.577217313044305</v>
@@ -16907,7 +16643,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.696528337722076</v>
+        <v>1.678587298540278</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.572435341235122</v>
@@ -16996,7 +16732,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.698585339093275</v>
+        <v>1.686510835874306</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.587015625263246</v>
@@ -17282,7 +17018,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.625840917514782</v>
+        <v>1.629954012031571</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.580073671848788</v>
@@ -17371,7 +17107,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.644607479885184</v>
+        <v>1.653086739550562</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.561970530109061</v>
@@ -17460,7 +17196,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.639298202901535</v>
+        <v>1.64607100740115</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.707111866986191</v>
@@ -17549,7 +17285,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.637550919718251</v>
+        <v>1.646997138104648</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.746997818280347</v>
@@ -17638,7 +17374,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.628642077858717</v>
+        <v>1.635864211995627</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.60637681277906</v>
@@ -17727,7 +17463,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.620546639077003</v>
+        <v>1.632337727421604</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.755542327633262</v>
@@ -17816,7 +17552,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.630900936985138</v>
+        <v>1.641233706553395</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.85667853284121</v>
@@ -17905,7 +17641,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.624146469121492</v>
+        <v>1.635183198838937</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.84042422614168</v>
@@ -17994,7 +17730,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.621095050743435</v>
+        <v>1.630157391332111</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.759587558025213</v>
@@ -18083,7 +17819,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.624458969338984</v>
+        <v>1.636437957913131</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.562051492142032</v>
@@ -18172,7 +17908,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.630120480230971</v>
+        <v>1.6329437649974</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.35508005504232</v>
@@ -18261,7 +17997,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.619293408811069</v>
+        <v>1.624443392681292</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.294462434383321</v>
@@ -18350,7 +18086,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.625508888119713</v>
+        <v>1.627239340357268</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.222290386340918</v>
@@ -18439,7 +18175,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.62277557018565</v>
+        <v>1.626206472421699</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.296562598122922</v>
@@ -18528,7 +18264,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.626175249225481</v>
+        <v>1.622871368623609</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.276062131418522</v>
@@ -18617,7 +18353,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.633928057071077</v>
+        <v>1.617536573571948</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.269540994535553</v>
@@ -18706,7 +18442,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.620845605247818</v>
+        <v>1.608658653870555</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.213627773570463</v>
@@ -18795,7 +18531,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.623708826886409</v>
+        <v>1.610691613082495</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.232194582527486</v>
@@ -18884,7 +18620,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.626373469600501</v>
+        <v>1.610589010477011</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.244302044563683</v>
@@ -18973,7 +18709,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.644109608808539</v>
+        <v>1.628856860355794</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.214605506827178</v>
@@ -19062,7 +18798,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.630307193575787</v>
+        <v>1.617370286485956</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.270281808269142</v>
@@ -19151,7 +18887,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.601440751760337</v>
+        <v>1.588735332501787</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.272754232023533</v>
@@ -19240,7 +18976,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.610804462838099</v>
+        <v>1.597946568599182</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.317231962585654</v>
@@ -19329,7 +19065,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.608006114154615</v>
+        <v>1.595790616909288</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.334757146107968</v>
@@ -19418,7 +19154,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.622941128369721</v>
+        <v>1.607306786174346</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.239095770135612</v>
@@ -19507,7 +19243,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.584026273249377</v>
+        <v>1.576996421622902</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.506269318928002</v>
@@ -19596,7 +19332,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.573386261297652</v>
+        <v>1.569336521887531</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.438575357771211</v>
@@ -19685,7 +19421,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.572672717419785</v>
+        <v>1.570435957680274</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.394329225912037</v>
@@ -19774,7 +19510,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.574370846384197</v>
+        <v>1.573853787160309</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.424528996720337</v>
@@ -19863,7 +19599,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.577700311544965</v>
+        <v>1.577240478982677</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.429114945501919</v>
@@ -19952,7 +19688,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.58659768787096</v>
+        <v>1.590611492892087</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.382621055858247</v>
@@ -20041,7 +19777,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.587068663649331</v>
+        <v>1.593299312604117</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.447936213971239</v>
@@ -20130,7 +19866,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.584721837285859</v>
+        <v>1.593476437010649</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.471015451864039</v>
@@ -20219,7 +19955,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.575983199701135</v>
+        <v>1.58223595135583</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.494715266039204</v>
@@ -20308,7 +20044,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.57726449424945</v>
+        <v>1.582508859099646</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.427591488934484</v>
@@ -20397,7 +20133,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.577408138198858</v>
+        <v>1.582558246796701</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.560059295733255</v>
@@ -20486,7 +20222,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.593189759434902</v>
+        <v>1.599708489060931</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.449062975857136</v>
@@ -20575,7 +20311,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.562724045277938</v>
+        <v>1.574216036974553</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.636241082359362</v>
@@ -20664,7 +20400,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.557979870116746</v>
+        <v>1.569431593188319</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.60889713481111</v>
@@ -20753,7 +20489,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.551256902053629</v>
+        <v>1.560744141239421</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.498937313442805</v>
@@ -20842,7 +20578,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.613032180579678</v>
+        <v>1.618349201569647</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.466370782006702</v>
@@ -20931,7 +20667,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.622713002618158</v>
+        <v>1.623675957613603</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.620155424317054</v>
@@ -21020,7 +20756,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.613296913168733</v>
+        <v>1.61232999716432</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.657956290905206</v>
@@ -21109,7 +20845,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.609167651048202</v>
+        <v>1.602185547767122</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.475684303517115</v>
@@ -21198,7 +20934,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.607466314774764</v>
+        <v>1.5977633510824</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.630513189605624</v>
@@ -21287,7 +21023,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.600600466923311</v>
+        <v>1.588093356416578</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.648261283475885</v>
@@ -21376,7 +21112,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.605092126777365</v>
+        <v>1.587372926224678</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.488940002928074</v>
@@ -21465,7 +21201,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.599695513186315</v>
+        <v>1.588480994792474</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.560488517056962</v>
@@ -21554,7 +21290,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.611758805511564</v>
+        <v>1.604108607145669</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.689461931448944</v>
@@ -21643,7 +21379,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.611639850615245</v>
+        <v>1.606484727203431</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.648021654520236</v>
@@ -21732,7 +21468,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.62240980116909</v>
+        <v>1.613597960745881</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.658325902495339</v>
@@ -21821,7 +21557,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.620596713155778</v>
+        <v>1.612655287601537</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.582753272904062</v>
@@ -21910,7 +21646,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.647804399788124</v>
+        <v>1.632015109217137</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.172436712043399</v>
@@ -21999,7 +21735,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.639144619131879</v>
+        <v>1.625628290556381</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.199817364849118</v>
@@ -22088,7 +21824,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.631954883294171</v>
+        <v>1.627805624471244</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.866216346647391</v>
@@ -22177,7 +21913,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.613264751799248</v>
+        <v>1.612852834988093</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.815375056665051</v>
@@ -22266,7 +22002,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.616020243035532</v>
+        <v>1.616628844156386</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.121280365815978</v>
@@ -22355,7 +22091,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.610327953208882</v>
+        <v>1.611958160911735</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.958296762850711</v>
@@ -22444,7 +22180,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.609205703803475</v>
+        <v>1.620367442671504</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.204123191958631</v>
@@ -22533,7 +22269,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.605487302291501</v>
+        <v>1.61528331258989</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.856571009950706</v>
@@ -22622,7 +22358,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.585623346405097</v>
+        <v>1.596673344998394</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.525117518898895</v>
@@ -22711,7 +22447,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.579840413723541</v>
+        <v>1.593697634841096</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.418093918133867</v>
@@ -22800,7 +22536,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.571085105893963</v>
+        <v>1.582352853039913</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.644005366603879</v>
@@ -22889,7 +22625,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.559400782434639</v>
+        <v>1.565724572165422</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.627659592886995</v>
@@ -22978,7 +22714,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.551944451434649</v>
+        <v>1.561853113180613</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.674873763381339</v>
@@ -23067,7 +22803,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.534677574573549</v>
+        <v>1.544806347036188</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.713530099194774</v>
@@ -23156,7 +22892,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.539531275794689</v>
+        <v>1.547699255736544</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.702354076956858</v>
@@ -23245,7 +22981,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.547308597244142</v>
+        <v>1.557373606779779</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.678488844618117</v>
@@ -23334,7 +23070,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.550129459774765</v>
+        <v>1.561392294499537</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.599289072610189</v>
@@ -23423,7 +23159,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.568361384502253</v>
+        <v>1.576982668020199</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.45472821701786</v>
@@ -23512,7 +23248,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.569997036796417</v>
+        <v>1.580593945793129</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.587271079304525</v>
@@ -23601,7 +23337,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.571262758294864</v>
+        <v>1.580890315530359</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.71971467189618</v>
@@ -23690,7 +23426,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.569687346278084</v>
+        <v>1.579257125204098</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.665252247847421</v>
@@ -23779,7 +23515,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.568130121105447</v>
+        <v>1.575191590956641</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.645964688893784</v>
@@ -23868,7 +23604,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.578472886006868</v>
+        <v>1.589070343861632</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.685495054424661</v>
@@ -23957,7 +23693,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.599148555541035</v>
+        <v>1.607697118495381</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.767887068228215</v>
@@ -24046,7 +23782,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.612246539767078</v>
+        <v>1.61451525864133</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.819602123832504</v>
@@ -24135,7 +23871,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.611171367986508</v>
+        <v>1.617476360725274</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.637832079304748</v>
@@ -24224,7 +23960,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.591828637674656</v>
+        <v>1.595847260502937</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.443787792195668</v>
@@ -24313,7 +24049,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.59854243496125</v>
+        <v>1.597532247324626</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.688875364350854</v>
@@ -24402,7 +24138,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.600772778428673</v>
+        <v>1.59742289685619</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.462349184394375</v>
@@ -24491,7 +24227,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.575264912342942</v>
+        <v>1.574175301401971</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.209138578584867</v>
@@ -24580,7 +24316,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.576950935614455</v>
+        <v>1.568757761984044</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.315012561196637</v>
@@ -24669,7 +24405,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.586349105455335</v>
+        <v>1.573498681344015</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.305487029960987</v>
@@ -24758,7 +24494,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.572525425441816</v>
+        <v>1.558455686899068</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.348599228755681</v>
@@ -24847,7 +24583,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.5754751245955</v>
+        <v>1.560826643175675</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.372088909369729</v>
@@ -24936,7 +24672,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.567119819580418</v>
+        <v>1.551248297254004</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.427002105595724</v>
@@ -25222,7 +24958,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.582173314169368</v>
+        <v>1.563406685642862</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.926124715163287</v>
@@ -25311,7 +25047,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.584686254321831</v>
+        <v>1.567416923603462</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.001187298052789</v>
@@ -25400,7 +25136,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.582155117422215</v>
+        <v>1.564005218683882</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.461470446307686</v>
@@ -25489,7 +25225,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.608187190959389</v>
+        <v>1.580098648392792</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.242685300417512</v>
@@ -25578,7 +25314,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.568380292981901</v>
+        <v>1.547004994112532</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.580276754584406</v>
@@ -25667,7 +25403,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.570762279129396</v>
+        <v>1.550499928405424</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.650671272778069</v>
@@ -25756,7 +25492,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.567712285302507</v>
+        <v>1.549194346500661</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.767968998152315</v>
@@ -25845,7 +25581,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.556369762785778</v>
+        <v>1.540689340945886</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.46287684399713</v>
@@ -25934,7 +25670,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.564155420678226</v>
+        <v>1.546660329563617</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.448838646357687</v>
@@ -26023,7 +25759,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.558523962401213</v>
+        <v>1.54078954291521</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.548709948994709</v>
@@ -26112,7 +25848,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.558538436826762</v>
+        <v>1.539670822963072</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.547701174556967</v>
@@ -26201,7 +25937,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.555385904733907</v>
+        <v>1.532519901986444</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.486343823711133</v>
@@ -26290,7 +26026,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.554513184742457</v>
+        <v>1.53374487860831</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.666579314487954</v>
@@ -26379,7 +26115,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.548707724072624</v>
+        <v>1.530765317344253</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.643956298505834</v>
@@ -26468,7 +26204,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.541927394525829</v>
+        <v>1.527383364109069</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.702826604112005</v>
@@ -26557,7 +26293,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.551627033544361</v>
+        <v>1.53438240127422</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.535162729857169</v>
@@ -26646,7 +26382,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.558964166708702</v>
+        <v>1.538492901499966</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.784506139808493</v>
@@ -26735,7 +26471,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.56982533342591</v>
+        <v>1.546421335883216</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.706188678775624</v>
@@ -26824,7 +26560,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.562147778955989</v>
+        <v>1.542975073432342</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.456619815073863</v>
@@ -26913,7 +26649,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.599778235640468</v>
+        <v>1.579953498332936</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.866260278394132</v>
@@ -27002,7 +26738,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.608683298629991</v>
+        <v>1.589094197743845</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.74213722496775</v>
@@ -27091,7 +26827,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.613636302708491</v>
+        <v>1.592661897331889</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.947275027030131</v>
@@ -27180,7 +26916,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.613562403512175</v>
+        <v>1.594824400557061</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.106527728713062</v>
@@ -27269,7 +27005,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.611777592763374</v>
+        <v>1.594479751547473</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.955026559125011</v>
@@ -27358,7 +27094,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.629985982518961</v>
+        <v>1.614922768387829</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.780907095581689</v>
@@ -27447,7 +27183,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.608162151035113</v>
+        <v>1.599589592269644</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.57795423328401</v>
@@ -27536,7 +27272,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.616049237904497</v>
+        <v>1.608897575762058</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.861507355222998</v>
@@ -27625,7 +27361,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.620223786724439</v>
+        <v>1.612946126299353</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.695051273682095</v>
@@ -27714,7 +27450,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.613308307206722</v>
+        <v>1.606749038586507</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.778972243945423</v>
@@ -27803,7 +27539,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.613158789019377</v>
+        <v>1.610054131199246</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.774697236399154</v>
@@ -27892,7 +27628,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.612354318424983</v>
+        <v>1.604088593896836</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.84246571498038</v>
@@ -27981,7 +27717,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.607410369389056</v>
+        <v>1.597917512200689</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.663685381371624</v>
@@ -28070,7 +27806,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.601794411407155</v>
+        <v>1.59600104940649</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.789642507048166</v>
@@ -28159,7 +27895,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.604729354955446</v>
+        <v>1.596058365860971</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.880835589775924</v>
@@ -28248,7 +27984,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.593251674310113</v>
+        <v>1.585660243234645</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.79554317812496</v>
@@ -28337,7 +28073,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.585838513991051</v>
+        <v>1.578800432040991</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.607111677046218</v>
@@ -28426,7 +28162,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.568780313730975</v>
+        <v>1.562373695529975</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.887346869256639</v>
@@ -28515,7 +28251,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.560614171261264</v>
+        <v>1.552434409482881</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.756296428577198</v>
@@ -28604,7 +28340,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.546142470346516</v>
+        <v>1.534448415243075</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.82007749784748</v>
@@ -28693,7 +28429,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.537491962322828</v>
+        <v>1.519074405968105</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.535277200620449</v>
@@ -28782,7 +28518,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.570241152512766</v>
+        <v>1.547615931593598</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.739897737325968</v>
@@ -28871,7 +28607,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.572545361510048</v>
+        <v>1.545647198791248</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.110271313872675</v>
@@ -28960,7 +28696,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.555521861861922</v>
+        <v>1.530638266113373</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.804278772940667</v>
@@ -29049,7 +28785,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.555991428428606</v>
+        <v>1.530034147496623</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.82042656687253</v>
@@ -29138,7 +28874,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.551087810459898</v>
+        <v>1.524659009284523</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.727824264703066</v>
@@ -29227,7 +28963,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.548291970204702</v>
+        <v>1.522828815284824</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.047073491589289</v>
@@ -29316,7 +29052,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.548684527258077</v>
+        <v>1.526094429818694</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.911493364989362</v>
@@ -29405,7 +29141,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.552786468910296</v>
+        <v>1.526747891394281</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.868870957072052</v>
@@ -29494,7 +29230,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.552107366915347</v>
+        <v>1.524199118243923</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.924993788424514</v>
@@ -29583,7 +29319,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.567326702365925</v>
+        <v>1.531915754323748</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.999179522766616</v>
@@ -29672,7 +29408,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.565982560679471</v>
+        <v>1.529260833011608</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.831011195491718</v>
@@ -29761,7 +29497,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.58518469502159</v>
+        <v>1.547426978374689</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.703273589532083</v>
@@ -29850,7 +29586,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.592402428253362</v>
+        <v>1.553313225996447</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.779455817803985</v>
@@ -29939,7 +29675,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.590286444542905</v>
+        <v>1.546369939482176</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.703546451087755</v>
@@ -30028,7 +29764,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.595104914687717</v>
+        <v>1.551536358923387</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.935151522564986</v>
@@ -30117,7 +29853,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.590316008240174</v>
+        <v>1.549209508996908</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.777556919598597</v>
@@ -30206,7 +29942,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.586512671884768</v>
+        <v>1.546966251157225</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.945595521669271</v>
@@ -30295,7 +30031,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.600594232322538</v>
+        <v>1.562954081935689</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.05402939809417</v>
@@ -30384,7 +30120,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.604524076464814</v>
+        <v>1.565274135647938</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.840350953223344</v>
@@ -30473,7 +30209,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.604116106714725</v>
+        <v>1.562874974352001</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.746281876841388</v>
@@ -30562,7 +30298,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.592087579919968</v>
+        <v>1.549790370956916</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.805310211067899</v>
@@ -30651,7 +30387,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.58819619397557</v>
+        <v>1.549283192800952</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.918237720318284</v>
@@ -30740,7 +30476,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.570758312781082</v>
+        <v>1.532814236302371</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.002064771628145</v>
@@ -30829,7 +30565,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.561266260430141</v>
+        <v>1.527058301293092</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.044701454817607</v>
@@ -30918,7 +30654,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.558864830562755</v>
+        <v>1.524862444633064</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.810577516484817</v>
@@ -31007,7 +30743,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.550013432010031</v>
+        <v>1.516230713436817</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.978481376641721</v>
@@ -31096,7 +30832,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.543922137773989</v>
+        <v>1.511370920916757</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.008255498948896</v>
@@ -31185,7 +30921,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.548131317684341</v>
+        <v>1.520633390117959</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.047500981284216</v>
@@ -31274,7 +31010,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.559053896795009</v>
+        <v>1.542223540713476</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.724618580761234</v>
@@ -31363,7 +31099,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.554915290067254</v>
+        <v>1.537973599061486</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.95172647846999</v>
@@ -31452,7 +31188,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.545846519276029</v>
+        <v>1.5299061736852</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.108716627254783</v>
@@ -31541,7 +31277,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.551304877769326</v>
+        <v>1.535257517214602</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.105742110699649</v>
@@ -31630,7 +31366,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.546768914900341</v>
+        <v>1.530158340108322</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.950423527107715</v>
@@ -31719,7 +31455,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.557678223988524</v>
+        <v>1.538593604893155</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.754367785268805</v>
@@ -31808,7 +31544,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.561796218430788</v>
+        <v>1.544878406713365</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.925024637780836</v>
@@ -31897,7 +31633,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.583541390092123</v>
+        <v>1.561676406997928</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.267796444840427</v>
@@ -31986,7 +31722,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.588515081297583</v>
+        <v>1.567420050397539</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.334294044355242</v>
@@ -32075,7 +31811,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.592271552921467</v>
+        <v>1.574690648318114</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.070015915333698</v>
@@ -32164,7 +31900,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.601202539759089</v>
+        <v>1.581580853909283</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.235691269514146</v>
@@ -32253,7 +31989,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.594323073824168</v>
+        <v>1.571783457515828</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.122079784118682</v>
@@ -32342,7 +32078,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.584075281467441</v>
+        <v>1.564914966789958</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.150757951654256</v>
@@ -32431,7 +32167,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.589481265155902</v>
+        <v>1.56742074261296</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.162002650543599</v>
@@ -32520,7 +32256,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.589481302931766</v>
+        <v>1.561619822795178</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.085469238034802</v>
@@ -32609,7 +32345,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.591152611529345</v>
+        <v>1.562476819363496</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.084261010506145</v>
@@ -32698,7 +32434,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.594315835403274</v>
+        <v>1.568375052928656</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.974198674127622</v>
@@ -32787,7 +32523,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.59904505126038</v>
+        <v>1.574217954502558</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.854719335861615</v>
@@ -32876,7 +32612,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.594312706901731</v>
+        <v>1.571153621441335</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.959030218193858</v>
@@ -33162,7 +32898,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.597234006976288</v>
+        <v>1.575825026578904</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.562942190092518</v>
@@ -33251,7 +32987,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.602946718174402</v>
+        <v>1.585781897485301</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.459324785230168</v>
@@ -33340,7 +33076,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.617504271326482</v>
+        <v>1.602350534308388</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.689883680458227</v>
@@ -33429,7 +33165,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.6257012028742</v>
+        <v>1.610412423077077</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.451863022171355</v>
@@ -33518,7 +33254,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.624562633763533</v>
+        <v>1.605293885978095</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.442027269913468</v>
@@ -33607,7 +33343,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.629849693342104</v>
+        <v>1.6070208081409</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.456907787056844</v>
@@ -33696,7 +33432,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.618936318453673</v>
+        <v>1.596982047061165</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.540524856817898</v>
@@ -33785,7 +33521,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.617380265224089</v>
+        <v>1.592086804228526</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.575258161036289</v>
@@ -33874,7 +33610,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.601315093628639</v>
+        <v>1.577196555879187</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.46986731136346</v>
@@ -33963,7 +33699,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.597978004329421</v>
+        <v>1.575047823063826</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.417689674114501</v>
@@ -34052,7 +33788,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.606146396556706</v>
+        <v>1.581807834255121</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.427426088719917</v>
@@ -34141,7 +33877,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.600552307397284</v>
+        <v>1.572693341432246</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.394334627312367</v>
@@ -34230,7 +33966,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.524557449103487</v>
+        <v>1.504987485560747</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.091295924310942</v>
@@ -34319,7 +34055,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.525710885687736</v>
+        <v>1.511115933909652</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.072422478356835</v>
@@ -34408,7 +34144,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.523790006777453</v>
+        <v>1.511026478472161</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.047136036578894</v>
@@ -34497,7 +34233,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.530517098457535</v>
+        <v>1.517377579301971</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.015478203741357</v>
@@ -34586,7 +34322,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.527521280819288</v>
+        <v>1.512916895323678</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.092446487003967</v>
@@ -34675,7 +34411,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.515184906852548</v>
+        <v>1.502534220296922</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.059376784085862</v>
@@ -34764,7 +34500,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.513339520747951</v>
+        <v>1.502069624136697</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.025669541674412</v>
@@ -34853,7 +34589,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.51296583508795</v>
+        <v>1.5078786396305</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.016607445649107</v>
@@ -34942,7 +34678,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.501930617509087</v>
+        <v>1.498372573133265</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.036154422474355</v>
@@ -35031,7 +34767,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.456790126872578</v>
+        <v>1.464228067177906</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.063602013240079</v>
@@ -35120,7 +34856,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.46294387176431</v>
+        <v>1.470787425112647</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.092885244748391</v>
@@ -35209,7 +34945,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.466918991578619</v>
+        <v>1.473383080467285</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.082430327453368</v>
@@ -35298,7 +35034,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.461376445221966</v>
+        <v>1.470195815175727</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.046033081561558</v>
@@ -35387,7 +35123,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.439790929936951</v>
+        <v>1.447046237614033</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.095211299942148</v>
@@ -35476,7 +35212,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.451928672819236</v>
+        <v>1.456484589448035</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.009947803397212</v>
@@ -35565,7 +35301,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.53105529256208</v>
+        <v>1.531075573993534</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.217709571825155</v>
@@ -35654,7 +35390,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.528444251829987</v>
+        <v>1.531085597384753</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.222891025639816</v>
@@ -35743,7 +35479,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.515916520267638</v>
+        <v>1.518327954569655</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.211603763717247</v>
@@ -35832,7 +35568,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.517295226521659</v>
+        <v>1.523211054877751</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.162385872067115</v>
@@ -35921,7 +35657,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.52641242847224</v>
+        <v>1.529077430489545</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.129909531477748</v>
@@ -36010,7 +35746,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.528424499375682</v>
+        <v>1.533913452093139</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.229286495379311</v>
@@ -36099,7 +35835,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.528132287267042</v>
+        <v>1.528644648920507</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.209886654556932</v>
@@ -36188,7 +35924,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.533133103544572</v>
+        <v>1.52779025625362</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.134910778557156</v>
@@ -36277,7 +36013,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.511349913920601</v>
+        <v>1.502031766739456</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.978478462443627</v>
@@ -36366,7 +36102,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.543868869653609</v>
+        <v>1.530440679613249</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.334401776734516</v>
@@ -36455,7 +36191,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.539104943077939</v>
+        <v>1.52533118088456</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.259115816627798</v>
@@ -36544,7 +36280,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.531019509371753</v>
+        <v>1.517009560405063</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.358150935600872</v>
@@ -36633,7 +36369,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.533716339308176</v>
+        <v>1.522259686351672</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.340173469173078</v>
@@ -36722,7 +36458,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.561317742330916</v>
+        <v>1.546672815225421</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.220608366438281</v>
@@ -36811,7 +36547,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.525281588111076</v>
+        <v>1.518962092456791</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.357722023963674</v>
@@ -36900,7 +36636,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.523052064406114</v>
+        <v>1.517663091753213</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.265610489166691</v>
@@ -36989,7 +36725,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.52555302807539</v>
+        <v>1.517174975323426</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.2880446583313</v>
@@ -37078,7 +36814,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.536338675998511</v>
+        <v>1.525433726623402</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.354110589233857</v>
@@ -37167,7 +36903,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.535917565056964</v>
+        <v>1.522340591495183</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.377867808739359</v>
@@ -37256,7 +36992,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.528485949001695</v>
+        <v>1.513873400494772</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.395070393540501</v>
@@ -37345,7 +37081,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.525466385433468</v>
+        <v>1.51255762853975</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.307145836527595</v>
@@ -37434,7 +37170,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.526165200754984</v>
+        <v>1.517975770858164</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.304374406033702</v>
@@ -37523,7 +37259,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.522602833522221</v>
+        <v>1.518181826212672</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.229218665541352</v>
@@ -37612,7 +37348,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.57303821492636</v>
+        <v>1.563227170949547</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.156229469989165</v>
@@ -37701,7 +37437,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.531164446453391</v>
+        <v>1.526719549977334</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.19606034624818</v>
@@ -37790,7 +37526,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.500928076643069</v>
+        <v>1.500729141558778</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.33666095203666</v>
@@ -37879,7 +37615,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.506970695224269</v>
+        <v>1.508029394760974</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.31221471659871</v>
@@ -37968,7 +37704,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.443751961019586</v>
+        <v>1.451598581940464</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.012683641316369</v>
@@ -38057,7 +37793,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.441807882299344</v>
+        <v>1.449330155765728</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.026835183566166</v>
@@ -38146,7 +37882,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.461561146792192</v>
+        <v>1.466672119341102</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.01808169216717</v>
@@ -38235,7 +37971,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.46427804273543</v>
+        <v>1.470007618705948</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.017472717011995</v>
@@ -38324,7 +38060,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.459123230895349</v>
+        <v>1.467871725641256</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.996197417143532</v>
@@ -38413,7 +38149,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.428846244732147</v>
+        <v>1.436122641245519</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.988977184169609</v>
@@ -38502,7 +38238,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.418412920717994</v>
+        <v>1.430096865006691</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.999712294282159</v>
@@ -38591,7 +38327,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.424492927314763</v>
+        <v>1.436007356127182</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.015382058401985</v>
@@ -38680,7 +38416,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.423682227011397</v>
+        <v>1.43561234831509</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.009376539689463</v>
@@ -38769,7 +38505,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.421140393723145</v>
+        <v>1.431084334743369</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.036394379269193</v>
@@ -38858,7 +38594,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.429555504288766</v>
+        <v>1.439705070725617</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.989635551346069</v>
@@ -38947,7 +38683,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.428605061667994</v>
+        <v>1.43897499342778</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.009934486072008</v>
@@ -39036,7 +38772,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.460339239115253</v>
+        <v>1.468480965921312</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.064291824451174</v>
@@ -39125,7 +38861,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.486454508492896</v>
+        <v>1.492092206425995</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.019367640531689</v>
@@ -39214,7 +38950,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.440495910193922</v>
+        <v>1.440222328406009</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.904074415072287</v>
@@ -39303,7 +39039,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.483831009018916</v>
+        <v>1.485880152631737</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.937264040633585</v>
@@ -39392,7 +39128,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.48389520804633</v>
+        <v>1.487176389033139</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.995767043105299</v>
@@ -39481,7 +39217,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.48650891494313</v>
+        <v>1.492064388506102</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.012567631917158</v>
@@ -39570,7 +39306,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.485077463357029</v>
+        <v>1.489303000330201</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.019984678521098</v>
@@ -39659,7 +39395,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.49273358468744</v>
+        <v>1.493283693939101</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.009432232425552</v>
@@ -39748,7 +39484,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.541589869434767</v>
+        <v>1.540196125727238</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.967161343925376</v>
@@ -39837,7 +39573,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.505692484631671</v>
+        <v>1.503279461747162</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.983067339039984</v>
@@ -39926,7 +39662,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.489816171298352</v>
+        <v>1.497607687015713</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.985689578257727</v>
@@ -40015,7 +39751,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.470708905098727</v>
+        <v>1.475285418326879</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.983748158165609</v>
@@ -40104,7 +39840,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.476015957836537</v>
+        <v>1.482184123995846</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.007462769774308</v>
@@ -40193,7 +39929,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.469879177931359</v>
+        <v>1.474432059555514</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.990856051034895</v>
@@ -40282,7 +40018,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.449086577822345</v>
+        <v>1.4586523239638</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.022995650337436</v>
@@ -40371,7 +40107,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.451818998898308</v>
+        <v>1.462892826160181</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.008712485294876</v>
@@ -40460,7 +40196,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.429879416150975</v>
+        <v>1.438115331113601</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>1.99282254664519</v>
@@ -40549,7 +40285,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.48037155324692</v>
+        <v>1.491494541628897</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.189049860307936</v>
@@ -40638,7 +40374,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.434338473535867</v>
+        <v>1.444501854736002</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.142179577902579</v>
@@ -40727,7 +40463,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.432622080135422</v>
+        <v>1.441525129310157</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.130503495968148</v>
@@ -40816,7 +40552,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.435384316835445</v>
+        <v>1.444925834692199</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.178326042285051</v>
@@ -41102,7 +40838,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.612157686216144</v>
+        <v>1.588158614470092</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.596526686828952</v>
@@ -41191,7 +40927,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.627882304284623</v>
+        <v>1.602305036917128</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.482789005086119</v>
@@ -41280,7 +41016,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.637184148193713</v>
+        <v>1.606754190044185</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.636788607612708</v>
@@ -41369,7 +41105,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.665386804471463</v>
+        <v>1.636325105758841</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.766451587111752</v>
@@ -41458,7 +41194,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.664483311072119</v>
+        <v>1.632261868587467</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.4503167661481</v>
@@ -41547,7 +41283,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.663050542034387</v>
+        <v>1.634969711277385</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.828955143582033</v>
@@ -41636,7 +41372,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.669182238245717</v>
+        <v>1.642596259520999</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.85038941811858</v>
@@ -41725,7 +41461,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.657398828861026</v>
+        <v>1.637086963980831</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.672440380471641</v>
@@ -41814,7 +41550,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.661510323070462</v>
+        <v>1.639834026464744</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.503456896553967</v>
@@ -41903,7 +41639,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.660036695441787</v>
+        <v>1.634511321716766</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.471671731899634</v>
@@ -41992,7 +41728,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.664817003711116</v>
+        <v>1.630937745330724</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.551876112133051</v>
@@ -42081,7 +41817,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.653293133085557</v>
+        <v>1.623968394844848</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.496027561372204</v>
@@ -42170,7 +41906,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.650343339454474</v>
+        <v>1.618769361364922</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.40834793060277</v>
@@ -42259,7 +41995,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.653662624257398</v>
+        <v>1.629166500903514</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.460193810178779</v>
@@ -42348,7 +42084,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.650415785074216</v>
+        <v>1.61964177440743</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.412714696165365</v>
@@ -42437,7 +42173,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.630401132887423</v>
+        <v>1.596747810484173</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.489739093739624</v>
@@ -42526,7 +42262,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.613926764918377</v>
+        <v>1.580198948593859</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.530764786429943</v>
@@ -42615,7 +42351,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.605787869190226</v>
+        <v>1.573540816130578</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.48191058098732</v>
@@ -42704,7 +42440,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.606440299882582</v>
+        <v>1.572633651417894</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.443232851014382</v>
@@ -42793,7 +42529,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.607523629278133</v>
+        <v>1.574395395731281</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.499742357616353</v>
@@ -42882,7 +42618,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.609235728916873</v>
+        <v>1.576692532804508</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.555312259357895</v>
@@ -42971,7 +42707,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.600213647999059</v>
+        <v>1.567889681802673</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.544294264997851</v>
@@ -43060,7 +42796,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.609747058678405</v>
+        <v>1.574653340063659</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.485954576869669</v>
@@ -43149,7 +42885,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.607609946977248</v>
+        <v>1.574115738597103</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.535655363421609</v>
@@ -43238,7 +42974,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.613349323267023</v>
+        <v>1.58646346515075</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.514222415778732</v>
@@ -43327,7 +43063,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.589703065354652</v>
+        <v>1.568555612303601</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.251269661848176</v>
@@ -43416,7 +43152,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.581582997096049</v>
+        <v>1.559086224228545</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.204997253681737</v>
@@ -43505,7 +43241,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.579675485437351</v>
+        <v>1.556886568071711</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.172746356834193</v>
@@ -43594,7 +43330,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.577419713590444</v>
+        <v>1.552998444554879</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.229113587742257</v>
@@ -43683,7 +43419,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.569812175076974</v>
+        <v>1.549404164013797</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.179565424672601</v>
@@ -43772,7 +43508,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.588766030506168</v>
+        <v>1.569516556040905</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.177278605169556</v>
@@ -43861,7 +43597,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.602504937422768</v>
+        <v>1.581811122410694</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.349486403127003</v>
@@ -43950,7 +43686,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.60298995482534</v>
+        <v>1.583852875472326</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.269114157863438</v>
@@ -44039,7 +43775,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.589288018306437</v>
+        <v>1.567878868482222</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.265036022901277</v>
@@ -44128,7 +43864,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.604542266077016</v>
+        <v>1.582342657761571</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.247193435258868</v>
@@ -44217,7 +43953,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.589088095668704</v>
+        <v>1.568632041644105</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.272893742686807</v>
@@ -44306,7 +44042,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.587047146696439</v>
+        <v>1.573219973716147</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.216985185105465</v>
@@ -44395,7 +44131,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.59190312791083</v>
+        <v>1.576307923712428</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.296601686502006</v>
@@ -44484,7 +44220,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.579034574005518</v>
+        <v>1.564241459041033</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.207282536216923</v>
@@ -44573,7 +44309,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.577978072006635</v>
+        <v>1.556869066813373</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.455606139254216</v>
@@ -44662,7 +44398,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.617741849038768</v>
+        <v>1.594124288642635</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.89783948292764</v>
@@ -44751,7 +44487,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.624910568713923</v>
+        <v>1.59971855233537</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.907744336256415</v>
@@ -44840,7 +44576,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.625013946615942</v>
+        <v>1.599142012711414</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.99246847900172</v>
@@ -44929,7 +44665,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.625115027702854</v>
+        <v>1.602407284667606</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.829766378038708</v>
@@ -45018,7 +44754,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.622323036608908</v>
+        <v>1.596747231137703</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.010842101621678</v>
@@ -45107,7 +44843,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.618256738752356</v>
+        <v>1.593207799885024</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.046682666797893</v>
@@ -45196,7 +44932,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.623930617638449</v>
+        <v>1.59490385732501</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.841529905388292</v>
@@ -45285,7 +45021,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.626705346667197</v>
+        <v>1.598267056940568</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.023966281642676</v>
@@ -45374,7 +45110,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.637807702261399</v>
+        <v>1.615373779530481</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.931828025811054</v>
@@ -45463,7 +45199,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.630103526446238</v>
+        <v>1.608403782092199</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.566938345238451</v>
@@ -45552,7 +45288,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.648991317662874</v>
+        <v>1.620955882521657</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.103682408247193</v>
@@ -45641,7 +45377,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.65154189897418</v>
+        <v>1.617646613729541</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.83755618595672</v>
@@ -45730,7 +45466,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.640413691927358</v>
+        <v>1.605510449877006</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.621938626468692</v>
@@ -45819,7 +45555,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.644473975606552</v>
+        <v>1.604469252322898</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.886051394467457</v>
@@ -45908,7 +45644,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.639885430741757</v>
+        <v>1.598993272016425</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.999944652508578</v>
@@ -45997,7 +45733,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.63782428866919</v>
+        <v>1.599609297540417</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.866178263456388</v>
@@ -46086,7 +45822,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.63840732047151</v>
+        <v>1.597755641193569</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.889743183996986</v>
@@ -46175,7 +45911,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.640963266493598</v>
+        <v>1.604978368248919</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.892499643440053</v>
@@ -46264,7 +46000,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.631825937644549</v>
+        <v>1.595801560363372</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.942251955134052</v>
@@ -46353,7 +46089,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.622870243767518</v>
+        <v>1.594379548623303</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.001273305850421</v>
@@ -46442,7 +46178,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.601544393103668</v>
+        <v>1.576722898256451</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.747104376183309</v>
@@ -46531,7 +46267,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.593070945834759</v>
+        <v>1.572138630045889</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.69873093998809</v>
@@ -46620,7 +46356,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.584881352300734</v>
+        <v>1.562592323175204</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.786524491253569</v>
@@ -46709,7 +46445,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.579374105939647</v>
+        <v>1.551187398100053</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.77635379311281</v>
@@ -46798,7 +46534,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.573841848059932</v>
+        <v>1.551432236846664</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.833938171040475</v>
@@ -46887,7 +46623,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.563376715484741</v>
+        <v>1.542875539217896</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.869293394354453</v>
@@ -46976,7 +46712,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.56515198042819</v>
+        <v>1.545338121309178</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.752526519157049</v>
@@ -47065,7 +46801,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.57766669292213</v>
+        <v>1.559271605662363</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.763263584481747</v>
@@ -47154,7 +46890,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.576997053646663</v>
+        <v>1.562832229637758</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.756232261327943</v>
@@ -47243,7 +46979,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.582590289818548</v>
+        <v>1.572360509265226</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.752271243244723</v>
@@ -47332,7 +47068,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.579963977917876</v>
+        <v>1.572174083693956</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.823964661928862</v>
@@ -47421,7 +47157,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.588363509175537</v>
+        <v>1.582123581579511</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.797990044794173</v>
@@ -47510,7 +47246,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.587953826628054</v>
+        <v>1.581320797514869</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.79934199143018</v>
@@ -47599,7 +47335,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.602951145700694</v>
+        <v>1.593956739087993</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.773493593326902</v>
@@ -47688,7 +47424,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.616420694408654</v>
+        <v>1.603058327271722</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.81508481391129</v>
@@ -47777,7 +47513,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.640740492719283</v>
+        <v>1.624736202195433</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.724051028770786</v>
@@ -47866,7 +47602,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.651900219360984</v>
+        <v>1.633500148970271</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.020783121591821</v>
@@ -47955,7 +47691,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.634909965658832</v>
+        <v>1.617665513473538</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.792158208680137</v>
@@ -48044,7 +47780,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.633234182220114</v>
+        <v>1.619486618085536</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.820723066937362</v>
@@ -48133,7 +47869,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.642100064914234</v>
+        <v>1.6227750659691</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.740980736718084</v>
@@ -48222,7 +47958,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.644453540484544</v>
+        <v>1.624768694779794</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.777566792953134</v>
@@ -48311,7 +48047,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.650218718783516</v>
+        <v>1.629709573649505</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.866801428554407</v>
@@ -48400,7 +48136,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.646780293770888</v>
+        <v>1.626142726523531</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.833322590273245</v>
@@ -48489,7 +48225,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.656054630012405</v>
+        <v>1.633916803598345</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.895314719838694</v>
@@ -48578,7 +48314,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.654711791265125</v>
+        <v>1.625610168730696</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.607607473356032</v>
@@ -48667,7 +48403,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.655883506398114</v>
+        <v>1.627273551647724</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.754205218425835</v>
@@ -48756,7 +48492,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.646355610927305</v>
+        <v>1.615585750961999</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.57361786731492</v>
@@ -49042,7 +48778,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.353781514158183</v>
+        <v>1.352223235331485</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.306402738983095</v>
@@ -49131,7 +48867,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.355823361970869</v>
+        <v>1.358003812973907</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.449514910966724</v>
@@ -49220,7 +48956,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.348506146149068</v>
+        <v>1.353171964118263</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.245055699815983</v>
@@ -49309,7 +49045,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.359130988168796</v>
+        <v>1.368252815999125</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.641707936572295</v>
@@ -49398,7 +49134,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.355574033215324</v>
+        <v>1.364367495048381</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.377591020348058</v>
@@ -49487,7 +49223,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.359846837958763</v>
+        <v>1.36595108872828</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.505043227548593</v>
@@ -49576,7 +49312,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.352763985024507</v>
+        <v>1.360519067215978</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.815263597757332</v>
@@ -49665,7 +49401,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.347633738090712</v>
+        <v>1.356455228399198</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.619500827944344</v>
@@ -49754,7 +49490,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.344387887465439</v>
+        <v>1.351090317160565</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.307241901614389</v>
@@ -49843,7 +49579,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.362415126843359</v>
+        <v>1.369707384538971</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.392382943000962</v>
@@ -49932,7 +49668,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.376271388655947</v>
+        <v>1.384397623920615</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.636064230142785</v>
@@ -50021,7 +49757,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.3786795029945</v>
+        <v>1.383022611954445</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.43576347430001</v>
@@ -50110,7 +49846,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.382631805700816</v>
+        <v>1.385659351353077</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.614213124262017</v>
@@ -50199,7 +49935,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.390457408269571</v>
+        <v>1.394524715021457</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.474738134385163</v>
@@ -50288,7 +50024,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.388958921549984</v>
+        <v>1.391872573173057</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.596600460294858</v>
@@ -50377,7 +50113,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.389047234220012</v>
+        <v>1.3943062402742</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.679942640014926</v>
@@ -50466,7 +50202,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.398884260904418</v>
+        <v>1.40239282079436</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.665847409339845</v>
@@ -50555,7 +50291,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.395511930802443</v>
+        <v>1.397510492390446</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.78804303599417</v>
@@ -50644,7 +50380,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.394630740081396</v>
+        <v>1.394984424701394</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.530288324030635</v>
@@ -50733,7 +50469,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.395873410027388</v>
+        <v>1.397241481288824</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.530501828587258</v>
@@ -50822,7 +50558,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.395774994292668</v>
+        <v>1.398001076356101</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.832391322740548</v>
@@ -50911,7 +50647,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.398717112674899</v>
+        <v>1.402945053323088</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.571296611201617</v>
@@ -51000,7 +50736,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.403467989649402</v>
+        <v>1.412929759075729</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.866043734958658</v>
@@ -51089,7 +50825,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.410165295937872</v>
+        <v>1.421305363044143</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.14144960325432</v>
@@ -51178,7 +50914,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.398997331791364</v>
+        <v>1.404516853155625</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.082923956059956</v>
@@ -51267,7 +51003,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.361382953492728</v>
+        <v>1.371574955431542</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.251498118115646</v>
@@ -51356,7 +51092,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.36454623718593</v>
+        <v>1.376492988276407</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.334484678718348</v>
@@ -51445,7 +51181,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.365319305374087</v>
+        <v>1.378842626466853</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.377288114645077</v>
@@ -51534,7 +51270,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.364010020705951</v>
+        <v>1.371239054847829</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.211849454393983</v>
@@ -51623,7 +51359,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.361126186653835</v>
+        <v>1.368874285286112</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.236611729038373</v>
@@ -51712,7 +51448,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.366730479658751</v>
+        <v>1.37108067359092</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.343027049655042</v>
@@ -51801,7 +51537,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.363407096088583</v>
+        <v>1.362175207396824</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.404266976611797</v>
@@ -51890,7 +51626,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.360523719889322</v>
+        <v>1.361127473905535</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.362381563431495</v>
@@ -51979,7 +51715,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.354402256582927</v>
+        <v>1.352406601347807</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.258257826249927</v>
@@ -52068,7 +51804,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.354332534257846</v>
+        <v>1.352100281093415</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.392028745827861</v>
@@ -52157,7 +51893,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.348892420950858</v>
+        <v>1.343993671616329</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.366437767658663</v>
@@ -52246,7 +51982,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.333783079528087</v>
+        <v>1.327187019057075</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.428415150408449</v>
@@ -52335,7 +52071,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.327496008947466</v>
+        <v>1.311972121099485</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.326211446854378</v>
@@ -52424,7 +52160,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.311367150413812</v>
+        <v>1.296257075379138</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.322293034801494</v>
@@ -52513,7 +52249,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.323027118963087</v>
+        <v>1.307583627328953</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.475042638554359</v>
@@ -52602,7 +52338,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.333878103987119</v>
+        <v>1.323397143260668</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.450106191202026</v>
@@ -52691,7 +52427,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.337381962790176</v>
+        <v>1.32326836403187</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.258302188828172</v>
@@ -52780,7 +52516,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.326669265459982</v>
+        <v>1.309185466898004</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.476586976652245</v>
@@ -52869,7 +52605,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.326901862702872</v>
+        <v>1.311301429784273</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.347722191198124</v>
@@ -52958,7 +52694,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.318387487000539</v>
+        <v>1.301550507458641</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.411122929575396</v>
@@ -53047,7 +52783,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.313446724272592</v>
+        <v>1.294510769713117</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.26138917846276</v>
@@ -53136,7 +52872,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.313030610307798</v>
+        <v>1.29972241520029</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.381149662755927</v>
@@ -53225,7 +52961,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.311570125273502</v>
+        <v>1.297003339567679</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.473259869071162</v>
@@ -53314,7 +53050,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.313733533049721</v>
+        <v>1.301722383323543</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.333913094178675</v>
@@ -53403,7 +53139,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.321197049590017</v>
+        <v>1.310363278359681</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.444145851074166</v>
@@ -53492,7 +53228,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.333179700121655</v>
+        <v>1.320289576819332</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.469379921016851</v>
@@ -53581,7 +53317,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.346073103716924</v>
+        <v>1.337792879751469</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.74029686732597</v>
@@ -53670,7 +53406,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.347271836966925</v>
+        <v>1.343453893104658</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.226533312365019</v>
@@ -53759,7 +53495,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.345608043665502</v>
+        <v>1.342253038141698</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.551279428326513</v>
@@ -53848,7 +53584,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.348889119454999</v>
+        <v>1.34456877442557</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.389909795934124</v>
@@ -53937,7 +53673,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.347633832909563</v>
+        <v>1.345525961013375</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.413194240775566</v>
@@ -54026,7 +53762,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.353114826162664</v>
+        <v>1.342128805138084</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.425266968013399</v>
@@ -54115,7 +53851,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.336294838103709</v>
+        <v>1.336166516669724</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.372926857281314</v>
@@ -54204,7 +53940,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.339887076720105</v>
+        <v>1.339581122588158</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.352937310417494</v>
@@ -54293,7 +54029,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.346319140562646</v>
+        <v>1.341782667460589</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.300474758638225</v>
@@ -54382,7 +54118,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.333292455723576</v>
+        <v>1.334968104283465</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.40161232680177</v>
@@ -54471,7 +54207,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.338139256236591</v>
+        <v>1.339213984493008</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.410084942444029</v>
@@ -54560,7 +54296,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.334604647779916</v>
+        <v>1.331166720184725</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.506412987699749</v>
@@ -54649,7 +54385,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.336746096521323</v>
+        <v>1.331709637374368</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.523181471763491</v>
@@ -54738,7 +54474,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.333308324777343</v>
+        <v>1.332201835641177</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.363055536849603</v>
@@ -54827,7 +54563,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.336925326365742</v>
+        <v>1.330375296553096</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.419167276452874</v>
@@ -54916,7 +54652,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.332642505271235</v>
+        <v>1.328405091692056</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.35902171155215</v>
@@ -55005,7 +54741,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.346482915878357</v>
+        <v>1.342631936868931</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.475670477342109</v>
@@ -55094,7 +54830,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.358991347039805</v>
+        <v>1.353540783563015</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.431199227575746</v>
@@ -55183,7 +54919,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.336025619925364</v>
+        <v>1.332424258764243</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.413126081775612</v>
@@ -55272,7 +55008,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.336634507660727</v>
+        <v>1.331791884942635</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.442217588375466</v>
@@ -55361,7 +55097,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.352389073762406</v>
+        <v>1.34708429989585</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.353911638246892</v>
@@ -55450,7 +55186,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.349091267788708</v>
+        <v>1.350585124490877</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.580476768176028</v>
@@ -55539,7 +55275,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.345639899236982</v>
+        <v>1.348600621615705</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.491101500230585</v>
@@ -55628,7 +55364,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.355168552375394</v>
+        <v>1.360573369097088</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.550349182862652</v>
@@ -55717,7 +55453,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.364171135593119</v>
+        <v>1.368150462279839</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.883838962392317</v>
@@ -55806,7 +55542,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.36141288901805</v>
+        <v>1.367591934302842</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.689845240187802</v>
@@ -55895,7 +55631,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.359254371305747</v>
+        <v>1.365532405136607</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.45617936381383</v>
@@ -55984,7 +55720,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.355541102055941</v>
+        <v>1.358575032034023</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.469558125103654</v>
@@ -56073,7 +55809,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.34526845385768</v>
+        <v>1.347745041642411</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.330425417693397</v>
@@ -56162,7 +55898,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.344935661142864</v>
+        <v>1.34752753760886</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.573344539100438</v>
@@ -56251,7 +55987,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.340224954383877</v>
+        <v>1.344762069022466</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.370302597360531</v>
@@ -56340,7 +56076,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.336610253563678</v>
+        <v>1.344043749302047</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.378468312864092</v>
@@ -56429,7 +56165,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.346983332692276</v>
+        <v>1.353205365658506</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.492317249243444</v>
@@ -56518,7 +56254,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.351989996788958</v>
+        <v>1.354617336078425</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.386137749116568</v>
@@ -56607,7 +56343,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.351000056483878</v>
+        <v>1.356546516850366</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.484810006241205</v>
@@ -56696,7 +56432,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.357084919591848</v>
+        <v>1.360271401993925</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.456434981625883</v>
